--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail0 Features.xlsx
@@ -2632,7 +2632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,29 +2643,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2686,115 +2684,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2811,72 +2799,66 @@
         <v>1.758915122665014e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.584755273328344</v>
+        <v>9.943109222553177e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.541081260689712</v>
+        <v>2.592352418843506e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.943109222553177e-07</v>
+        <v>0.08342950375656395</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.592352418843506e-06</v>
+        <v>0.2120910335475587</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08342950375656395</v>
+        <v>0.05186206346900867</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2120910335475587</v>
+        <v>1.529404310203777</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05186206346900867</v>
+        <v>1.525365122539068</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.433407625979668</v>
+        <v>3.451024693690175</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.525365122539068</v>
+        <v>6.433433986379775e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.451024693690175</v>
+        <v>32725129.60876399</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.433433986379775e-15</v>
+        <v>3.229109577928028e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>32725129.60876399</v>
+        <v>6.88978388700408</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.229109577928028e-06</v>
+        <v>0.0001334610095889762</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.88978388700408</v>
+        <v>8.925988443801232</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001334610095889762</v>
+        <v>1.208508688063372</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.925988443801232</v>
+        <v>0.01063327501126639</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.208508688063372</v>
+        <v>2.838217005000099</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01063327501126639</v>
+        <v>0.9341020650497485</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.838217005000099</v>
+        <v>1.890202267724518</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9341020650497485</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.890202267724518</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2010105472721011</v>
       </c>
     </row>
@@ -2891,72 +2873,66 @@
         <v>1.466510651053868e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.514156790287332</v>
+        <v>8.223060754194006e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.200741958463627</v>
+        <v>2.605374917521573e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.223060754194006e-07</v>
+        <v>0.0784653296783471</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.605374917521573e-06</v>
+        <v>0.2136985371475104</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0784653296783471</v>
+        <v>0.05175765607603962</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2136985371475104</v>
+        <v>1.50896084778577</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05175765607603962</v>
+        <v>1.51006495951034</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.412456970363704</v>
+        <v>3.484994326406249</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.51006495951034</v>
+        <v>6.308626733275944e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.484994326406249</v>
+        <v>33675187.46318074</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.308626733275944e-15</v>
+        <v>3.118396631334287e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>33675187.46318074</v>
+        <v>7.154097852264974</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.118396631334287e-06</v>
+        <v>0.0001294627417541756</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.154097852264974</v>
+        <v>8.227481882810149</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001294627417541756</v>
+        <v>1.269269462825085</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.227481882810149</v>
+        <v>0.008763521763102725</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.269269462825085</v>
+        <v>2.973440657313897</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008763521763102725</v>
+        <v>0.93326614334298</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.973440657313897</v>
+        <v>1.890451879162135</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.93326614334298</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.890451879162135</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1959899662310166</v>
       </c>
     </row>
@@ -2971,72 +2947,66 @@
         <v>1.23303893222112e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.450109453249241</v>
+        <v>6.939654782840364e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.05023358091519</v>
+        <v>2.615573002043895e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.939654782840364e-07</v>
+        <v>0.07295044972842561</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.615573002043895e-06</v>
+        <v>0.2243193970191187</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07295044972842561</v>
+        <v>0.0555858659893819</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2243193970191187</v>
+        <v>1.551092130406583</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0555858659893819</v>
+        <v>1.567119067512631</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.450012896589167</v>
+        <v>3.539550926830367</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.567119067512631</v>
+        <v>6.115650415013829e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.539550926830367</v>
+        <v>33414864.71309688</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.115650415013829e-15</v>
+        <v>3.206148641363028e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>33414864.71309688</v>
+        <v>6.828448941858257</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.206148641363028e-06</v>
+        <v>0.0001249536690752888</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.828448941858257</v>
+        <v>7.454352554245089</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001249536690752888</v>
+        <v>1.458578232723867</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.454352554245089</v>
+        <v>0.006943347012643865</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.458578232723867</v>
+        <v>3.10012127481654</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006943347012643865</v>
+        <v>0.9391659232515245</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.10012127481654</v>
+        <v>1.83515599074525</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9391659232515245</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.83515599074525</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2005101567727344</v>
       </c>
     </row>
@@ -3051,72 +3021,66 @@
         <v>1.042797507671519e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.357033254468355</v>
+        <v>5.948500068995644e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5.950846495111412</v>
+        <v>2.623517261967744e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.948500068995644e-07</v>
+        <v>0.0668808985976103</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.623517261967744e-06</v>
+        <v>0.2426990164685659</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0668808985976103</v>
+        <v>0.06332825547113012</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2426990164685659</v>
+        <v>1.56552640533706</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06332825547113012</v>
+        <v>1.524943704771422</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.465380076461049</v>
+        <v>3.843443341243955</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.524943704771422</v>
+        <v>5.186782254398728e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.843443341243955</v>
+        <v>38828907.16600534</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.186782254398728e-15</v>
+        <v>2.770832496314144e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>38828907.16600534</v>
+        <v>7.82002878089436</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.770832496314144e-06</v>
+        <v>0.0001270676187168337</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.82002878089436</v>
+        <v>8.103115610573173</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001270676187168337</v>
+        <v>1.50531415649481</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.103115610573173</v>
+        <v>0.008343321167565941</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.50531415649481</v>
+        <v>2.962942992073457</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008343321167565941</v>
+        <v>0.9402155042159958</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.962942992073457</v>
+        <v>1.85540703167402</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9402155042159958</v>
+        <v>15</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.85540703167402</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2230922787566303</v>
       </c>
     </row>
@@ -3131,72 +3095,66 @@
         <v>8.866145707473301e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.183502006278532</v>
+        <v>5.168742185361714e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5.67334485656418</v>
+        <v>2.629646121155467e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.168742185361714e-07</v>
+        <v>0.06028390162543925</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.629646121155467e-06</v>
+        <v>0.2681370520725498</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.06028390162543925</v>
+        <v>0.075488735987778</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2681370520725498</v>
+        <v>1.575362404064912</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.075488735987778</v>
+        <v>1.643438306174765</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.480830722974663</v>
+        <v>3.975240196757059</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.643438306174765</v>
+        <v>4.848553948825942e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.975240196757059</v>
+        <v>40529831.79708272</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.848553948825942e-15</v>
+        <v>2.626538264871443e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>40529831.79708272</v>
+        <v>7.964560856746252</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.626538264871443e-06</v>
+        <v>0.0001269328816013454</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.964560856746252</v>
+        <v>8.044245339544123</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001269328816013454</v>
+        <v>1.511793007052273</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.044245339544123</v>
+        <v>0.008213811927783076</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.511793007052273</v>
+        <v>2.931919555447478</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008213811927783076</v>
+        <v>0.9423148350783426</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.931919555447478</v>
+        <v>1.862428894019585</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9423148350783426</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.862428894019585</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2261939604911917</v>
       </c>
     </row>
@@ -3211,72 +3169,66 @@
         <v>7.597086737075714e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.868263123348996</v>
+        <v>4.519597149282289e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.877890505821563</v>
+        <v>2.634289537776041e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.519597149282289e-07</v>
+        <v>0.05238194990240726</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.634289537776041e-06</v>
+        <v>0.2979359268310877</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05238194990240726</v>
+        <v>0.09146481588931804</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2979359268310877</v>
+        <v>1.572997948817429</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09146481588931804</v>
+        <v>1.578275287517141</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.484288835438412</v>
+        <v>3.971353303879138</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.578275287517141</v>
+        <v>4.858049468802748e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.971353303879138</v>
+        <v>39162121.3852465</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.858049468802748e-15</v>
+        <v>2.697363962509172e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>39162121.3852465</v>
+        <v>7.450653237171483</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.697363962509172e-06</v>
+        <v>0.0001258241274441375</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.450653237171483</v>
+        <v>7.753481528782495</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001258241274441375</v>
+        <v>1.530207302682718</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.753481528782495</v>
+        <v>0.007564103114712178</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.530207302682718</v>
+        <v>3.02011529878719</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007564103114712178</v>
+        <v>0.9443724426056769</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.02011529878719</v>
+        <v>1.855871599647858</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9443724426056769</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.855871599647858</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2182620143702416</v>
       </c>
     </row>
@@ -3291,72 +3243,66 @@
         <v>6.626597456092556e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.405062464301927</v>
+        <v>3.920283798834265e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.4498759007549</v>
+        <v>2.637643104519585e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.920283798834265e-07</v>
+        <v>0.0415265479649758</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.637643104519585e-06</v>
+        <v>0.3250019902522257</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0415265479649758</v>
+        <v>0.1073001998831169</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3250019902522257</v>
+        <v>1.576033301438333</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1073001998831169</v>
+        <v>1.521791386066556</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.490053859002981</v>
+        <v>3.957370777580492</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.521791386066556</v>
+        <v>4.892439882283207e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.957370777580492</v>
+        <v>38947044.63457163</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.892439882283207e-15</v>
+        <v>2.719340519470871e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>38947044.63457163</v>
+        <v>7.421206467218101</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.719340519470871e-06</v>
+        <v>0.0001275907951654163</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.421206467218101</v>
+        <v>7.8791942514863</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001275907951654163</v>
+        <v>1.497689389051894</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.8791942514863</v>
+        <v>0.007921053730120677</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.497689389051894</v>
+        <v>3.022739348519657</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007921053730120677</v>
+        <v>0.9468099352369664</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.022739348519657</v>
+        <v>1.870214630001979</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9468099352369664</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.870214630001979</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2095821067305647</v>
       </c>
     </row>
@@ -3371,72 +3317,66 @@
         <v>5.972791441428695e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.9121127998430016</v>
+        <v>3.402819246024763e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.861296497115305</v>
+        <v>2.639849909972368e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.402819246024763e-07</v>
+        <v>0.02850610076371117</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.639849909972368e-06</v>
+        <v>0.3454457288078576</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02850610076371117</v>
+        <v>0.1201040354125137</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3454457288078576</v>
+        <v>1.582297022533304</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1201040354125137</v>
+        <v>1.488819894851764</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.49821585300315</v>
+        <v>4.027974906623302</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.488819894851764</v>
+        <v>4.722429358027045e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.027974906623302</v>
+        <v>41218603.66303782</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.722429358027045e-15</v>
+        <v>2.588921265361652e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>41218603.66303782</v>
+        <v>8.023281333427176</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.588921265361652e-06</v>
+        <v>0.0001304215683965986</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8.023281333427176</v>
+        <v>8.474888909773025</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001304215683965986</v>
+        <v>1.350575070282751</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.474888909773025</v>
+        <v>0.009367365084055761</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.350575070282751</v>
+        <v>2.892875015516789</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009367365084055761</v>
+        <v>0.9490394432220126</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.892875015516789</v>
+        <v>1.883117637855668</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9490394432220126</v>
+        <v>10</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.883117637855668</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2140548565769041</v>
       </c>
     </row>
@@ -3451,72 +3391,66 @@
         <v>5.607026829040349e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5500842864042149</v>
+        <v>2.953377148778287e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.7182667070627189</v>
+        <v>2.641095157420454e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.953377148778287e-07</v>
+        <v>0.01430112130563518</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.641095157420454e-06</v>
+        <v>0.3547641675102922</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01430112130563518</v>
+        <v>0.1260176802321028</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3547641675102922</v>
+        <v>1.591469333869037</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1260176802321028</v>
+        <v>1.465938080457543</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.505700568544155</v>
+        <v>4.216422069061458</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.465938080457543</v>
+        <v>4.309737584155278e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.216422069061458</v>
+        <v>46037967.62228591</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.309737584155278e-15</v>
+        <v>2.333949903385434e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>46037967.62228591</v>
+        <v>9.134464945697847</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.333949903385434e-06</v>
+        <v>0.0001233502298706239</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>9.134464945697847</v>
+        <v>7.995271916942913</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001233502298706239</v>
+        <v>1.313336941609493</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.995271916942913</v>
+        <v>0.007885086107074845</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.313336941609493</v>
+        <v>2.971877119569326</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007885086107074845</v>
+        <v>0.9489956402054206</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.971877119569326</v>
+        <v>1.846492663143475</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9489956402054206</v>
+        <v>10</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.846492663143475</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2163278633988418</v>
       </c>
     </row>
@@ -3531,72 +3465,66 @@
         <v>5.511246155467848e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4496929512786675</v>
+        <v>2.531519667737773e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.433752099394225</v>
+        <v>2.641435846880083e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.531519667737773e-07</v>
+        <v>-0.002455410046664488</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.641435846880083e-06</v>
+        <v>0.341508458463701</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.002455410046664488</v>
+        <v>0.1165637521494531</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.341508458463701</v>
+        <v>1.622490777321156</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1165637521494531</v>
+        <v>1.593261622151508</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.544571828946428</v>
+        <v>4.177044639214383</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.593261622151508</v>
+        <v>4.020452096751485e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.177044639214383</v>
+        <v>49344865.61232622</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.020452096751485e-15</v>
+        <v>2.212874522628169e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>49344865.61232622</v>
+        <v>9.789462181946385</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.212874522628169e-06</v>
+        <v>0.0001188825684664714</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9.789462181946385</v>
+        <v>7.29835702275459</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001188825684664714</v>
+        <v>1.405953301346216</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.29835702275459</v>
+        <v>0.006332400702705754</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.405953301346216</v>
+        <v>3.089891641890328</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006332400702705754</v>
+        <v>0.9508086449346924</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.089891641890328</v>
+        <v>1.819061457985078</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9508086449346924</v>
+        <v>10</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.819061457985078</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2180032890990864</v>
       </c>
     </row>
@@ -3611,72 +3539,66 @@
         <v>5.653911448108984e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5416472274808251</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.541882244409905</v>
+        <v>2.640759268922992e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.0218324732580764</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.640759268922992e-06</v>
+        <v>0.2972499845502742</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0218324732580764</v>
+        <v>0.08873280117169813</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2972499845502742</v>
+        <v>1.657702472462185</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.08873280117169813</v>
+        <v>1.606842520504538</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.580022908266004</v>
+        <v>4.237811289754795</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.606842520504538</v>
+        <v>3.905978942920704e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.237811289754795</v>
+        <v>50285630.61603852</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.905978942920704e-15</v>
+        <v>2.204636647394505e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>50285630.61603852</v>
+        <v>9.876832743173299</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.204636647394505e-06</v>
+        <v>0.0001212839130628616</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9.876832743173299</v>
+        <v>7.310443029645804</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001212839130628616</v>
+        <v>1.403644980371251</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.310443029645804</v>
+        <v>0.006481724897858862</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.403644980371251</v>
+        <v>3.08829483779478</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006481724897858862</v>
+        <v>0.951656877990134</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.08829483779478</v>
+        <v>1.832024196170335</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.951656877990134</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.832024196170335</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2098263514275262</v>
       </c>
     </row>
@@ -3691,72 +3613,66 @@
         <v>5.91532718526829e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.601559296905562</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4099344178307489</v>
+        <v>2.638966511894945e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.03897404815765365</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.638966511894945e-06</v>
+        <v>0.2389185796727601</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03897404815765365</v>
+        <v>0.05852286161002222</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2389185796727601</v>
+        <v>1.679748296448138</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05852286161002222</v>
+        <v>1.604528047505041</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.607879724160238</v>
+        <v>4.217655855355686</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.604528047505041</v>
+        <v>3.943400115048631e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.217655855355686</v>
+        <v>49302228.90941174</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.943400115048631e-15</v>
+        <v>2.253828129089933e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>49302228.90941174</v>
+        <v>9.58526120810429</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.253828129089933e-06</v>
+        <v>0.0001334623695415603</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9.58526120810429</v>
+        <v>8.103087793593499</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001334623695415603</v>
+        <v>1.307836641018026</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.103087793593499</v>
+        <v>0.008763143426958863</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.307836641018026</v>
+        <v>3.012397535065873</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008763143426958863</v>
+        <v>0.9531985847147691</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.012397535065873</v>
+        <v>1.800753274607977</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9531985847147691</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.800753274607977</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1909944547293069</v>
       </c>
     </row>
@@ -3771,72 +3687,66 @@
         <v>6.129136678260754e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5749216212538283</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.1903993609602308</v>
+        <v>2.636254381710543e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.04941073668981</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.636254381710543e-06</v>
+        <v>0.197416313969315</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04941073668981</v>
+        <v>0.04137760456935727</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.197416313969315</v>
+        <v>1.69722064422522</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04137760456935727</v>
+        <v>1.51357258582497</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.629292856670363</v>
+        <v>4.170673579363251</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.51357258582497</v>
+        <v>4.290457466273982e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.170673579363251</v>
+        <v>44949816.33331297</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.290457466273982e-15</v>
+        <v>2.48194490673958e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>44949816.33331297</v>
+        <v>8.668809194426608</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.48194490673958e-06</v>
+        <v>0.0001640269639045282</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8.668809194426608</v>
+        <v>10.84156518060904</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001640269639045282</v>
+        <v>1.121536502645867</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.84156518060904</v>
+        <v>0.01927965315753995</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.121536502645867</v>
+        <v>2.677257851690089</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01927965315753995</v>
+        <v>0.9520235733576319</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.677257851690089</v>
+        <v>1.799152969027939</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9520235733576319</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.799152969027939</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1863445898722639</v>
       </c>
     </row>
@@ -3851,72 +3761,66 @@
         <v>6.209174441051154e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5314914115334469</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.04150203807612041</v>
+        <v>2.633108475571213e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.0506679221946949</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.633108475571213e-06</v>
+        <v>0.1896316274435126</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0506679221946949</v>
+        <v>0.03851558419129563</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1896316274435126</v>
+        <v>1.673758361480702</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03851558419129563</v>
+        <v>1.482016381227621</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.610151286527503</v>
+        <v>4.185642725555013</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.482016381227621</v>
+        <v>4.365153439740686e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.185642725555013</v>
+        <v>44621164.64643637</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.365153439740686e-15</v>
+        <v>2.463595106828422e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>44621164.64643637</v>
+        <v>8.691231485615257</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.463595106828422e-06</v>
+        <v>0.0002155846946832903</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.691231485615257</v>
+        <v>12.78806195794934</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002155846946832903</v>
+        <v>1.043846960138229</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.78806195794934</v>
+        <v>0.03525554142710589</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.043846960138229</v>
+        <v>2.355841676908248</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03525554142710589</v>
+        <v>0.9508889665189327</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.355841676908248</v>
+        <v>1.832484781919912</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9508889665189327</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.832484781919912</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1863600123503588</v>
       </c>
     </row>
@@ -3931,72 +3835,66 @@
         <v>6.185245413718905e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4957199960984929</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.04306472939661399</v>
+        <v>2.630110604584226e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.04554899176090429</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.630110604584226e-06</v>
+        <v>0.1961035180045786</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04554899176090429</v>
+        <v>0.04052683777755492</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1961035180045786</v>
+        <v>1.699798435647877</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04052683777755492</v>
+        <v>1.496319622239008</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.633019699276174</v>
+        <v>3.969281631589127</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.496319622239008</v>
+        <v>4.854002507217095e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.969281631589127</v>
+        <v>38405604.06557985</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.854002507217095e-15</v>
+        <v>2.905538187717516e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>38405604.06557985</v>
+        <v>7.159607214479881</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.905538187717516e-06</v>
+        <v>0.000271934376888143</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>7.159607214479881</v>
+        <v>10.73857533844641</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000271934376888143</v>
+        <v>1.510738012430639</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.73857533844641</v>
+        <v>0.03135865662105143</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.510738012430639</v>
+        <v>2.420255746539906</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03135865662105143</v>
+        <v>0.9532744109565231</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.420255746539906</v>
+        <v>1.782138021649462</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9532744109565231</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.782138021649462</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1931332399060308</v>
       </c>
     </row>
@@ -4011,72 +3909,66 @@
         <v>6.135329888584761e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4546294039300429</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.0850809842940321</v>
+        <v>2.627463320193781e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.04076269246966062</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.627463320193781e-06</v>
+        <v>0.1980284051569997</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04076269246966062</v>
+        <v>0.04087380516084228</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1980284051569997</v>
+        <v>1.718864443221882</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04087380516084228</v>
+        <v>1.495509285764918</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.654362893761608</v>
+        <v>3.774358895671881</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.495509285764918</v>
+        <v>4.371177989762056e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.774358895671881</v>
+        <v>42367690.95095845</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.371177989762056e-15</v>
+        <v>2.646396248044372e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>42367690.95095845</v>
+        <v>7.846357320213889</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.646396248044372e-06</v>
+        <v>0.0002330659208693363</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7.846357320213889</v>
+        <v>9.275345475408047</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002330659208693363</v>
+        <v>1.87798178832782</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.275345475408047</v>
+        <v>0.02005113515579569</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.87798178832782</v>
+        <v>2.844478222958883</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02005113515579569</v>
+        <v>0.9556839421658511</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.844478222958883</v>
+        <v>1.769346282380914</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9556839421658511</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.769346282380914</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1808888816005059</v>
       </c>
     </row>
@@ -4091,72 +3983,66 @@
         <v>6.103494138595751e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.4005144681552507</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.1222785208057084</v>
+        <v>2.625050477294309e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.03860953364668449</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.625050477294309e-06</v>
+        <v>0.1978697260742437</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03860953364668449</v>
+        <v>0.04063961040604088</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1978697260742437</v>
+        <v>1.747618422668048</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04063961040604088</v>
+        <v>1.687902980022923</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.688500513234856</v>
+        <v>3.760106780782979</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.687902980022923</v>
+        <v>4.404377364736617e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.760106780782979</v>
+        <v>43642003.60000481</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.404377364736617e-15</v>
+        <v>2.607064645640829e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>43642003.60000481</v>
+        <v>8.388684940207934</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.607064645640829e-06</v>
+        <v>0.0001589570214804897</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8.388684940207934</v>
+        <v>9.34298788636009</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001589570214804897</v>
+        <v>1.410613569911546</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.34298788636009</v>
+        <v>0.01387558454439153</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.410613569911546</v>
+        <v>2.982797406658507</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01387558454439153</v>
+        <v>0.955134833433711</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.982797406658507</v>
+        <v>1.771850197004956</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.955134833433711</v>
+        <v>8</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.771850197004956</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1725509231874275</v>
       </c>
     </row>
@@ -4171,72 +4057,66 @@
         <v>6.101100957944941e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.3372314806234094</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.1769189225470864</v>
+        <v>2.622692273414668e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.03921056905217409</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.622692273414668e-06</v>
+        <v>0.1982755102789776</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03921056905217409</v>
+        <v>0.04084771859967534</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1982755102789776</v>
+        <v>1.737337974861475</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04084771859967534</v>
+        <v>1.638925151539976</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.679483372698632</v>
+        <v>3.710269069721207</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.638925151539976</v>
+        <v>4.523494502892005e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.710269069721207</v>
+        <v>42191661.6236592</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.523494502892005e-15</v>
+        <v>2.689719261215472e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>42191661.6236592</v>
+        <v>8.052436815240846</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.689719261215472e-06</v>
+        <v>0.0001449520829378303</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8.052436815240846</v>
+        <v>9.956347634530415</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001449520829378303</v>
+        <v>1.145300235389479</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.956347634530415</v>
+        <v>0.01436893447818269</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.145300235389479</v>
+        <v>2.818725895249526</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01436893447818269</v>
+        <v>0.9542540322029196</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.818725895249526</v>
+        <v>1.772546304940419</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9542540322029196</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.772546304940419</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1804953638454555</v>
       </c>
     </row>
@@ -4251,72 +4131,66 @@
         <v>6.122849021806988e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2737596347051883</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.2445795442091097</v>
+        <v>2.620203140237595e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.04280778366190801</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.620203140237595e-06</v>
+        <v>0.1985912362160031</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04280778366190801</v>
+        <v>0.04126736801820897</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1985912362160031</v>
+        <v>1.736743515323275</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04126736801820897</v>
+        <v>1.596413473512303</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.675499531061267</v>
+        <v>3.707389973837165</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.596413473512303</v>
+        <v>4.530522968437682e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.707389973837165</v>
+        <v>42127398.98109434</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.530522968437682e-15</v>
+        <v>2.68986498968346e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>42127398.98109434</v>
+        <v>8.04039950581914</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.68986498968346e-06</v>
+        <v>0.0001475092866232262</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8.04039950581914</v>
+        <v>9.892360409488914</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001475092866232262</v>
+        <v>1.174935482414746</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.892360409488914</v>
+        <v>0.01443508096225911</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.174935482414746</v>
+        <v>2.727540108162433</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01443508096225911</v>
+        <v>0.9542115934554615</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.727540108162433</v>
+        <v>1.756775323894762</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9542115934554615</v>
+        <v>10</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.756775323894762</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1815805767120681</v>
       </c>
     </row>
@@ -4331,72 +4205,66 @@
         <v>6.14839331220887e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2221091933182104</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3036776444167528</v>
+        <v>2.617376815994244e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.04993387199561971</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.617376815994244e-06</v>
+        <v>0.1952687431439327</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04993387199561971</v>
+        <v>0.04061243274196595</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1952687431439327</v>
+        <v>1.739483778210835</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04061243274196595</v>
+        <v>1.59367547283954</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.67286625882685</v>
+        <v>3.717005643879274</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.59367547283954</v>
+        <v>4.507112907001632e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.717005643879274</v>
+        <v>42348741.86716727</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.507112907001632e-15</v>
+        <v>2.68974025691533e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>42348741.86716727</v>
+        <v>8.08312812057418</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.68974025691533e-06</v>
+        <v>0.0001473874341490086</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8.08312812057418</v>
+        <v>8.919901738688791</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001473874341490086</v>
+        <v>1.236190794303151</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.919901738688791</v>
+        <v>0.01172682917440832</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.236190794303151</v>
+        <v>2.865233349426488</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01172682917440832</v>
+        <v>0.9550736394140942</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.865233349426488</v>
+        <v>1.787747444622132</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9550736394140942</v>
+        <v>10</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.787747444622132</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1729105069427599</v>
       </c>
     </row>
@@ -4411,72 +4279,66 @@
         <v>6.13227949573227e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2112326608592804</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.3553807574915053</v>
+        <v>2.613990937636347e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.06046839885830079</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.613990937636347e-06</v>
+        <v>0.1847594868403645</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06046839885830079</v>
+        <v>0.03777807897004355</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1847594868403645</v>
+        <v>1.74489164305599</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03777807897004355</v>
+        <v>1.580504401028644</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.674696222252512</v>
+        <v>3.716140370399668</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.580504401028644</v>
+        <v>4.509212041537875e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.716140370399668</v>
+        <v>42583029.09663838</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.509212041537875e-15</v>
+        <v>2.682964077697433e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>42583029.09663838</v>
+        <v>8.176618978973625</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.682964077697433e-06</v>
+        <v>0.0001658622335139675</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8.176618978973625</v>
+        <v>8.240986754202339</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001658622335139675</v>
+        <v>1.550041254210794</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.240986754202339</v>
+        <v>0.01126434495115305</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.550041254210794</v>
+        <v>2.913350336881748</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01126434495115305</v>
+        <v>0.9559907954941825</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.913350336881748</v>
+        <v>1.780156926999312</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9559907954941825</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.780156926999312</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1549458551992213</v>
       </c>
     </row>
@@ -4491,72 +4353,66 @@
         <v>6.035935353848774e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2864690767457383</v>
+        <v>2.545070606921052e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.5027072623685549</v>
+        <v>2.610043343038239e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.545070606921052e-07</v>
+        <v>-0.06801513310021307</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.610043343038239e-06</v>
+        <v>0.1816569809073695</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06801513310021307</v>
+        <v>0.03762522494999444</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1816569809073695</v>
+        <v>1.742306395873547</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03762522494999444</v>
+        <v>1.601301082833077</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.676963968059799</v>
+        <v>3.697808412178157</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.601301082833077</v>
+        <v>4.554031879924007e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.697808412178157</v>
+        <v>41893775.03536924</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.554031879924007e-15</v>
+        <v>2.717273072763705e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>41893775.03536924</v>
+        <v>7.992728465180528</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.717273072763705e-06</v>
+        <v>0.0001735428842048396</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7.992728465180528</v>
+        <v>9.274516966238448</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001735428842048396</v>
+        <v>1.412098514554165</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.274516966238448</v>
+        <v>0.01492758012632691</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.412098514554165</v>
+        <v>2.848497350922806</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01492758012632691</v>
+        <v>0.9530844307972434</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.848497350922806</v>
+        <v>1.739091601007626</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9530844307972434</v>
+        <v>10</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.739091601007626</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1501243660200881</v>
       </c>
     </row>
@@ -4571,72 +4427,66 @@
         <v>5.904719449465359e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4167910569029527</v>
+        <v>2.471633858249893e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7741685026640237</v>
+        <v>2.605940617392807e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.471633858249893e-07</v>
+        <v>-0.06827818246701735</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.605940617392807e-06</v>
+        <v>0.1851529695662927</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06827818246701735</v>
+        <v>0.03893899953678572</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1851529695662927</v>
+        <v>1.741976128062284</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03893899953678572</v>
+        <v>1.609217066789834</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.673683183191758</v>
+        <v>3.678425865885204</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.609217066789834</v>
+        <v>4.602150989554674e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.678425865885204</v>
+        <v>40828708.168928</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.602150989554674e-15</v>
+        <v>2.787675456910635e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>40828708.168928</v>
+        <v>7.671709353324368</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.787675456910635e-06</v>
+        <v>0.0001575123520578613</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.671709353324368</v>
+        <v>10.64550701901823</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001575123520578613</v>
+        <v>1.116116890675779</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.64550701901823</v>
+        <v>0.0178503739209188</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.116116890675779</v>
+        <v>2.725430985820414</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0178503739209188</v>
+        <v>0.9513976013399398</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.725430985820414</v>
+        <v>1.771472653319155</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9513976013399398</v>
+        <v>10</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.771472653319155</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1649342549592358</v>
       </c>
     </row>
@@ -4651,72 +4501,66 @@
         <v>5.805417752817551e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.5150305078447868</v>
+        <v>2.253949177491973e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.028549228150709</v>
+        <v>2.60208024608409e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.253949177491973e-07</v>
+        <v>-0.06299169306539758</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.60208024608409e-06</v>
+        <v>0.1842810990100776</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.06299169306539758</v>
+        <v>0.03791547504363223</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1842810990100776</v>
+        <v>1.737144327366917</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03791547504363223</v>
+        <v>1.571958639354192</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.667201295535105</v>
+        <v>3.664587369954803</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.571958639354192</v>
+        <v>4.636974608630075e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.664587369954803</v>
+        <v>39639365.34639209</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.636974608630075e-15</v>
+        <v>2.854925605055065e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>39639365.34639209</v>
+        <v>7.285982147911664</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.854925605055065e-06</v>
+        <v>0.0001525444877330911</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.285982147911664</v>
+        <v>10.36594645377597</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001525444877330911</v>
+        <v>1.117608253449229</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.36594645377597</v>
+        <v>0.01639133933061648</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.117608253449229</v>
+        <v>2.695493864955971</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01639133933061648</v>
+        <v>0.9507363831920179</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.695493864955971</v>
+        <v>1.801720932246299</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9507363831920179</v>
+        <v>10</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.801720932246299</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.170661842401508</v>
       </c>
     </row>
@@ -4731,72 +4575,66 @@
         <v>5.758572855821416e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.5396643285756162</v>
+        <v>1.994879273272015e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.197357662885553</v>
+        <v>2.598678345384973e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.994879273272015e-07</v>
+        <v>-0.05435551816967494</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.598678345384973e-06</v>
+        <v>0.1800024117107895</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05435551816967494</v>
+        <v>0.03534132086650783</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1800024117107895</v>
+        <v>1.731681173996859</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03534132086650783</v>
+        <v>1.545105195670876</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.659058387007948</v>
+        <v>3.604690611759632</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.545105195670876</v>
+        <v>4.792353966156704e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.604690611759632</v>
+        <v>37507007.50798818</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.792353966156704e-15</v>
+        <v>3.004208467350682e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>37507007.50798818</v>
+        <v>6.741766684639713</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.004208467350682e-06</v>
+        <v>0.0001500099270051354</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>6.741766684639713</v>
+        <v>9.180149174955789</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001500099270051354</v>
+        <v>1.208530720353893</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.180149174955789</v>
+        <v>0.01264210743090261</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.208530720353893</v>
+        <v>2.84137845486872</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01264210743090261</v>
+        <v>0.9514039446897216</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.84137845486872</v>
+        <v>1.78331353427857</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9514039446897216</v>
+        <v>10</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.78331353427857</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1673013978174915</v>
       </c>
     </row>
@@ -4811,72 +4649,66 @@
         <v>5.743195167712461e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.504991527975802</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.306336633177433</v>
+        <v>2.595854188612256e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.04361001438501775</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.595854188612256e-06</v>
+        <v>0.1780026836308643</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04361001438501775</v>
+        <v>0.03357147109602328</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1780026836308643</v>
+        <v>1.707262209749644</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03357147109602328</v>
+        <v>1.526475218754498</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.637311721322986</v>
+        <v>3.516545727742015</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.526475218754498</v>
+        <v>5.035612933890335e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.516545727742015</v>
+        <v>35796441.43854888</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.035612933890335e-15</v>
+        <v>3.118795354046887e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>35796441.43854888</v>
+        <v>6.452559985433224</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.118795354046887e-06</v>
+        <v>0.0001596474746434011</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.452559985433224</v>
+        <v>8.453618408041853</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001596474746434011</v>
+        <v>1.400158158644083</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.453618408041853</v>
+        <v>0.01140899351650344</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.400158158644083</v>
+        <v>2.884183429230619</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01140899351650344</v>
+        <v>0.9518831917180024</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.884183429230619</v>
+        <v>1.785058745764712</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9518831917180024</v>
+        <v>10</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.785058745764712</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1603853122368332</v>
       </c>
     </row>
@@ -4891,72 +4723,66 @@
         <v>5.733747840142073e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4440551178267679</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.377084675150603</v>
+        <v>2.593663244114016e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.03322981734454615</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.593663244114016e-06</v>
+        <v>0.1782645737780002</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03322981734454615</v>
+        <v>0.03287323614294664</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1782645737780002</v>
+        <v>1.640114617887371</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03287323614294664</v>
+        <v>1.512652318351211</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.560339440156561</v>
+        <v>3.431088715722241</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.512652318351211</v>
+        <v>5.289577489390894e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.431088715722241</v>
+        <v>35853474.60994118</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.289577489390894e-15</v>
+        <v>3.038227161176509e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>35853474.60994118</v>
+        <v>6.799601858687852</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.038227161176509e-06</v>
+        <v>0.0001867666481076145</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.799601858687852</v>
+        <v>9.098448462928065</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001867666481076145</v>
+        <v>1.486052578167119</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.098448462928065</v>
+        <v>0.01546087266750301</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.486052578167119</v>
+        <v>2.771519675081622</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01546087266750301</v>
+        <v>0.9473714143958579</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.771519675081622</v>
+        <v>1.841050260612055</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9473714143958579</v>
+        <v>11</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.841050260612055</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1520643684382122</v>
       </c>
     </row>
@@ -4971,72 +4797,66 @@
         <v>5.73193129717539e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3793160748112024</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.425259462713659</v>
+        <v>2.591964478171513e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.02674622992191953</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.591964478171513e-06</v>
+        <v>0.1758561299289975</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.02674622992191953</v>
+        <v>0.03163642918000561</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1758561299289975</v>
+        <v>1.608303416665018</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03163642918000561</v>
+        <v>1.483903795535943</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.528996945779628</v>
+        <v>3.37394300212966</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.483903795535943</v>
+        <v>5.470277972889664e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.37394300212966</v>
+        <v>34187640.05160293</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.470277972889664e-15</v>
+        <v>3.140608588228611e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>34187640.05160293</v>
+        <v>6.393632078919028</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.140608588228611e-06</v>
+        <v>0.0001970805289593993</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>6.393632078919028</v>
+        <v>11.07620383970024</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001970805289593993</v>
+        <v>1.270115816027472</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.07620383970024</v>
+        <v>0.0241782909024934</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.270115816027472</v>
+        <v>2.683087314148757</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0241782909024934</v>
+        <v>0.9473619357856665</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.683087314148757</v>
+        <v>1.832430303574592</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9473619357856665</v>
+        <v>11</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.832430303574592</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1579297076616921</v>
       </c>
     </row>
@@ -5051,72 +4871,66 @@
         <v>5.743256206969965e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3170980989938535</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.467839903307443</v>
+        <v>2.590538207956333e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.02332581613510567</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.590538207956333e-06</v>
+        <v>0.1736502564411384</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02332581613510567</v>
+        <v>0.03069620531818874</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1736502564411384</v>
+        <v>1.626817641927953</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03069620531818874</v>
+        <v>1.617653519951926</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.546804534032419</v>
+        <v>3.553541362053508</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.617653519951926</v>
+        <v>4.922377661422662e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.553541362053508</v>
+        <v>37690042.55571901</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.922377661422662e-15</v>
+        <v>2.873684207551613e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>37690042.55571901</v>
+        <v>6.992430956143052</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.873684207551613e-06</v>
+        <v>0.000152261301758385</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6.992430956143052</v>
+        <v>10.97006912892532</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000152261301758385</v>
+        <v>1.213774631436256</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.97006912892532</v>
+        <v>0.01832349302248713</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.213774631436256</v>
+        <v>2.936632012644505</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01832349302248713</v>
+        <v>0.9479421830200289</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.936632012644505</v>
+        <v>1.852951622503229</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9479421830200289</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.852951622503229</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1781784791347399</v>
       </c>
     </row>
@@ -5131,72 +4945,66 @@
         <v>5.765579585023445e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2587373019891732</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.509620308760006</v>
+        <v>2.589249407278529e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.02196717817997267</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.589249407278529e-06</v>
+        <v>0.1723016949847777</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02196717817997267</v>
+        <v>0.03016827915509602</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1723016949847777</v>
+        <v>1.67514554229892</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03016827915509602</v>
+        <v>1.480903003331599</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.59487576822614</v>
+        <v>3.711728609466233</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.480903003331599</v>
+        <v>4.511752338532802e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.711728609466233</v>
+        <v>41045602.56673714</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.511752338532802e-15</v>
+        <v>2.737280727903971e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>41045602.56673714</v>
+        <v>7.601136357630941</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.737280727903971e-06</v>
+        <v>0.0001221754605328326</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.601136357630941</v>
+        <v>8.890366035709448</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001221754605328326</v>
+        <v>1.197002610290805</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.890366035709448</v>
+        <v>0.009656578362683025</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.197002610290805</v>
+        <v>3.07445116836718</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009656578362683025</v>
+        <v>0.9490801656756357</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.07445116836718</v>
+        <v>1.798387825752543</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9490801656756357</v>
+        <v>10</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.798387825752543</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1967316422371514</v>
       </c>
     </row>
@@ -5211,72 +5019,66 @@
         <v>5.801999093568251e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.2023457165176838</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.553710194683225</v>
+        <v>2.587943218698067e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.02374311028217993</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.587943218698067e-06</v>
+        <v>0.1724071119732676</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.02374311028217993</v>
+        <v>0.03028482517020446</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1724071119732676</v>
+        <v>1.656908883489244</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03028482517020446</v>
+        <v>1.504856168583171</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.578586879421834</v>
+        <v>3.841636426856644</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.504856168583171</v>
+        <v>3.492783051251308e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.841636426856644</v>
+        <v>52588031.12528156</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.492783051251308e-15</v>
+        <v>2.120813279412553e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>52588031.12528156</v>
+        <v>9.659295082608821</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.120813279412553e-06</v>
+        <v>0.0001146636842328216</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>9.659295082608821</v>
+        <v>8.274433113961923</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001146636842328216</v>
+        <v>1.192041277013702</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.274433113961923</v>
+        <v>0.007850591708943824</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.192041277013702</v>
+        <v>3.024215205487728</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007850591708943824</v>
+        <v>0.948733420982813</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.024215205487728</v>
+        <v>1.803387726003733</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.948733420982813</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.803387726003733</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2134384192333967</v>
       </c>
     </row>
@@ -5291,72 +5093,66 @@
         <v>5.857033923658946e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.1462396286540092</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.597514971340738</v>
+        <v>2.58644900001948e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.02779970375073719</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.58644900001948e-06</v>
+        <v>0.1723984328023914</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.02779970375073719</v>
+        <v>0.03049067165422189</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1723984328023914</v>
+        <v>1.655986898378444</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03049067165422189</v>
+        <v>1.598343455210628</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.578713373665513</v>
+        <v>4.152216283686166</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.598343455210628</v>
+        <v>2.989814184179548e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.152216283686166</v>
+        <v>58099860.1169183</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.989814184179548e-15</v>
+        <v>1.901279592982793e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>58099860.1169183</v>
+        <v>10.09239806063902</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.901279592982793e-06</v>
+        <v>0.000104965682096675</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>10.09239806063902</v>
+        <v>7.362809645294418</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000104965682096675</v>
+        <v>1.28840187980617</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.362809645294418</v>
+        <v>0.005690291009962275</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.28840187980617</v>
+        <v>3.205507842822594</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.005690291009962275</v>
+        <v>0.9492305648326047</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.205507842822594</v>
+        <v>1.842153910040181</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9492305648326047</v>
+        <v>15</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.842153910040181</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2185999972600412</v>
       </c>
     </row>
@@ -5371,72 +5167,66 @@
         <v>5.927941806104049e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.09069363120464337</v>
+        <v>1.803710324923514e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.63091031282712</v>
+        <v>2.584667918081425e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.803710324923514e-07</v>
+        <v>-0.03258094000257537</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.584667918081425e-06</v>
+        <v>0.170542700923917</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.03258094000257537</v>
+        <v>0.03014380399180631</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.170542700923917</v>
+        <v>1.669763851827553</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03014380399180631</v>
+        <v>1.712570456707861</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.593865552197621</v>
+        <v>4.200689556886905</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.712570456707861</v>
+        <v>2.921211208100376e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.200689556886905</v>
+        <v>59558304.43134689</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.921211208100376e-15</v>
+        <v>1.860824855394224e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>59558304.43134689</v>
+        <v>10.36209593730391</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.860824855394224e-06</v>
+        <v>0.0001169193099334491</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>10.36209593730391</v>
+        <v>7.988872269442061</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001169193099334491</v>
+        <v>2.030712592389761</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.988872269442061</v>
+        <v>0.007462033568189153</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>2.030712592389761</v>
+        <v>3.363629039188498</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007462033568189153</v>
+        <v>0.9507821906899692</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.363629039188498</v>
+        <v>1.811753185445802</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9507821906899692</v>
+        <v>15</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.811753185445802</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2100662625879715</v>
       </c>
     </row>
@@ -5451,72 +5241,66 @@
         <v>6.008376016962919e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.03750414382460503</v>
+        <v>1.834166359388057e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.647365093810004</v>
+        <v>2.58262055898826e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.834166359388057e-07</v>
+        <v>-0.03562815595775527</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.58262055898826e-06</v>
+        <v>0.1683182816930532</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.03562815595775527</v>
+        <v>0.02959947310373612</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1683182816930532</v>
+        <v>1.670699294198658</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02959947310373612</v>
+        <v>1.658759262655066</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.595720354280655</v>
+        <v>4.188228020176058</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.658759262655066</v>
+        <v>2.938620449642581e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.188228020176058</v>
+        <v>59330227.64226836</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.938620449642581e-15</v>
+        <v>1.86871888264554e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>59330227.64226836</v>
+        <v>10.34416705954249</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.86871888264554e-06</v>
+        <v>0.0001214977147710737</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>10.34416705954249</v>
+        <v>8.708895209006076</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001214977147710737</v>
+        <v>1.871779782574226</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.708895209006076</v>
+        <v>0.009214976652157756</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.871779782574226</v>
+        <v>3.359175040285538</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.009214976652157756</v>
+        <v>0.9504913728563249</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.359175040285538</v>
+        <v>1.791504492332519</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9504913728563249</v>
+        <v>6</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.791504492332519</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2084236071222333</v>
       </c>
     </row>
@@ -5531,72 +5315,66 @@
         <v>6.097510348129093e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.01094333756717727</v>
+        <v>1.907625073777703e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.64875667949641</v>
+        <v>2.580416294249103e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.907625073777703e-07</v>
+        <v>-0.03710739100981241</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.580416294249103e-06</v>
+        <v>0.1661495543705517</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.03710739100981241</v>
+        <v>0.0289820331283891</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1661495543705517</v>
+        <v>1.668006541412062</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.0289820331283891</v>
+        <v>1.608250731780265</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.59362905995462</v>
+        <v>4.192112125233734</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.608250731780265</v>
+        <v>2.933177549948059e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.192112125233734</v>
+        <v>58613637.70939033</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.933177549948059e-15</v>
+        <v>1.877666257214528e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>58613637.70939033</v>
+        <v>10.0771031386104</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.877666257214528e-06</v>
+        <v>0.000108566419388129</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>10.0771031386104</v>
+        <v>8.258861019959173</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000108566419388129</v>
+        <v>1.293367522322757</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.258861019959173</v>
+        <v>0.00740518359593739</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.293367522322757</v>
+        <v>3.211043006991013</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.00740518359593739</v>
+        <v>0.9501698613125399</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.211043006991013</v>
+        <v>1.835938483746173</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9501698613125399</v>
+        <v>6</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.835938483746173</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2118522376074924</v>
       </c>
     </row>
@@ -5611,72 +5389,66 @@
         <v>6.192383659046114e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.05527017142602086</v>
+        <v>1.957393874156504e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.637876252394412</v>
+        <v>2.57809634184793e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.957393874156504e-07</v>
+        <v>-0.03842585471216126</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.57809634184793e-06</v>
+        <v>0.1634342036846851</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.03842585471216126</v>
+        <v>0.02818694283439906</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1634342036846851</v>
+        <v>1.666552647144424</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02818694283439906</v>
+        <v>1.588205357268038</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.590221004849466</v>
+        <v>4.166221248542228</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.588205357268038</v>
+        <v>2.969747143931739e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.166221248542228</v>
+        <v>58129885.18132015</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.969747143931739e-15</v>
+        <v>1.896269312886977e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>58129885.18132015</v>
+        <v>10.03502372526351</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.896269312886977e-06</v>
+        <v>0.0001147836218504523</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.03502372526351</v>
+        <v>8.503765040199696</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001147836218504523</v>
+        <v>1.195180356813093</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.503765040199696</v>
+        <v>0.008300465109972659</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.195180356813093</v>
+        <v>2.996253689377192</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008300465109972659</v>
+        <v>0.9500013093785102</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.996253689377192</v>
+        <v>1.832956158925454</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9500013093785102</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.832956158925454</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2119320701746989</v>
       </c>
     </row>
@@ -6053,7 +5825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418539070864671</v>
+        <v>1.368896356676746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.424770847263646</v>
@@ -6142,7 +5914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416500526477692</v>
+        <v>1.365817650753764</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.358017181955198</v>
@@ -6231,7 +6003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.416340212369841</v>
+        <v>1.355093077746765</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.361930127400613</v>
@@ -6320,7 +6092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404783877960323</v>
+        <v>1.347161547200346</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.288189480772724</v>
@@ -6409,7 +6181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.417947773224908</v>
+        <v>1.360941340993961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.526109884314504</v>
@@ -6498,7 +6270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.433201269049105</v>
+        <v>1.367611167724993</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.270571011369631</v>
@@ -6587,7 +6359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.419405217871794</v>
+        <v>1.353638575878209</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.366337910453761</v>
@@ -6676,7 +6448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.435892065348262</v>
+        <v>1.363619397314585</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.299985896138846</v>
@@ -6765,7 +6537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437120831374266</v>
+        <v>1.362718663682632</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.385249010668254</v>
@@ -6854,7 +6626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.433094585361012</v>
+        <v>1.356876206344067</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.366667357975843</v>
@@ -6943,7 +6715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.423166387089142</v>
+        <v>1.34541515521712</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.369684670484136</v>
@@ -7032,7 +6804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.423002895516302</v>
+        <v>1.348742641968319</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.397811826194501</v>
@@ -7121,7 +6893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463629366270996</v>
+        <v>1.383733954001195</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.34879264945802</v>
@@ -7210,7 +6982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.459107367198483</v>
+        <v>1.378940125267385</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.306739538887816</v>
@@ -7299,7 +7071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.458670681719747</v>
+        <v>1.377401178445027</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.451360780973584</v>
@@ -7388,7 +7160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.454693045139716</v>
+        <v>1.37292569974694</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.262604817456551</v>
@@ -7477,7 +7249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.459701222834279</v>
+        <v>1.378669709543118</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.345443558972126</v>
@@ -7566,7 +7338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.473022922254112</v>
+        <v>1.387230043835289</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.480815395225186</v>
@@ -7655,7 +7427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.479651540932744</v>
+        <v>1.394506529431864</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.532603900981276</v>
@@ -7744,7 +7516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.48336350928349</v>
+        <v>1.398343030693501</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.49040312932605</v>
@@ -7833,7 +7605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.485516991129798</v>
+        <v>1.407083065519289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.355847009944185</v>
@@ -7922,7 +7694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.509722950092602</v>
+        <v>1.433455299485554</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.47969438120561</v>
@@ -8011,7 +7783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.51667923301395</v>
+        <v>1.445452989734607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.753820707944878</v>
@@ -8100,7 +7872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.511797798861709</v>
+        <v>1.443137132067642</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.479149238066704</v>
@@ -8189,7 +7961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.498962876011505</v>
+        <v>1.445449342794483</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.47716916748628</v>
@@ -8278,7 +8050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.509388016969796</v>
+        <v>1.449973799332734</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.609002869063122</v>
@@ -8367,7 +8139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.525491530248937</v>
+        <v>1.464157485885893</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.669094912555986</v>
@@ -8456,7 +8228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511273795726362</v>
+        <v>1.444510051444569</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.416225048244063</v>
@@ -8545,7 +8317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511682111269948</v>
+        <v>1.445130233101489</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.583115771677162</v>
@@ -8634,7 +8406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.491009665437154</v>
+        <v>1.425328650646461</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.378478015114876</v>
@@ -8723,7 +8495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.484954204194407</v>
+        <v>1.416119713435516</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.368305994261309</v>
@@ -8812,7 +8584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478079234884384</v>
+        <v>1.414344937081745</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.507981762850583</v>
@@ -8901,7 +8673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484896732419091</v>
+        <v>1.416159792105898</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.521134502582471</v>
@@ -8990,7 +8762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.48711837928159</v>
+        <v>1.417788179532119</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.379489012829245</v>
@@ -9079,7 +8851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508301264282859</v>
+        <v>1.429867329373602</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.317426486378054</v>
@@ -9168,7 +8940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.488482613921828</v>
+        <v>1.409359521061156</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.442233308530237</v>
@@ -9257,7 +9029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.474038789612697</v>
+        <v>1.395873806233869</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.402730277235847</v>
@@ -9346,7 +9118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.466048096020435</v>
+        <v>1.388570831326133</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.524604198299484</v>
@@ -9435,7 +9207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.459590696019929</v>
+        <v>1.376441309217612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.269015050612134</v>
@@ -9524,7 +9296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.4543612253891</v>
+        <v>1.367094299306989</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.443022141554323</v>
@@ -9613,7 +9385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.445477898584556</v>
+        <v>1.36533904637496</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.392052485044729</v>
@@ -9702,7 +9474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444309165313098</v>
+        <v>1.365513495781406</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.400873540259398</v>
@@ -9791,7 +9563,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.44520261702436</v>
+        <v>1.369701656283349</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.33833554493703</v>
@@ -9880,7 +9652,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.450501489590127</v>
+        <v>1.372076243515791</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.237562430521792</v>
@@ -9969,7 +9741,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.462185967251286</v>
+        <v>1.381847411681135</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.405317462785244</v>
@@ -10058,7 +9830,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.471757478960999</v>
+        <v>1.3941019481691</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.277957226213488</v>
@@ -10147,7 +9919,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47137466068319</v>
+        <v>1.391700596848621</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.689353406469599</v>
@@ -10236,7 +10008,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.45239932164012</v>
+        <v>1.384224521935276</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.47651076387631</v>
@@ -10325,7 +10097,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.446637357947919</v>
+        <v>1.377752193104632</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.390464652441183</v>
@@ -10414,7 +10186,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.440955893818282</v>
+        <v>1.376620265823553</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.360415862373469</v>
@@ -10503,7 +10275,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.456586543973141</v>
+        <v>1.386505964778726</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.494519761004578</v>
@@ -10592,7 +10364,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.444079043777447</v>
+        <v>1.377995964862447</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.567464191994475</v>
@@ -10681,7 +10453,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.450214331391814</v>
+        <v>1.378008549695632</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.602398543674767</v>
@@ -10770,7 +10542,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.476399576243614</v>
+        <v>1.399092689736644</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.285196308120676</v>
@@ -10859,7 +10631,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.457991804550481</v>
+        <v>1.388710175156176</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.61227181651172</v>
@@ -10948,7 +10720,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.459313102341629</v>
+        <v>1.389701646772804</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.579510895422957</v>
@@ -11037,7 +10809,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.455054614027937</v>
+        <v>1.383205200521694</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.447038766048556</v>
@@ -11126,7 +10898,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.440459936480999</v>
+        <v>1.376295538596081</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.532459707985248</v>
@@ -11215,7 +10987,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.439312103413088</v>
+        <v>1.376680028268676</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.626939533188067</v>
@@ -11304,7 +11076,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.459773700042141</v>
+        <v>1.389899273140261</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.535808137084374</v>
@@ -11393,7 +11165,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.462750153036554</v>
+        <v>1.39303403328967</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.747798670834182</v>
@@ -11482,7 +11254,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.456143718530035</v>
+        <v>1.393157431715635</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.309509041875842</v>
@@ -11571,7 +11343,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.479952839700879</v>
+        <v>1.405556395762017</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.396216005720844</v>
@@ -11660,7 +11432,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.483800451196534</v>
+        <v>1.415632601886444</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.372121757098486</v>
@@ -11749,7 +11521,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.482392273441126</v>
+        <v>1.413378844434</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.690333639854078</v>
@@ -11838,7 +11610,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.478347572401183</v>
+        <v>1.409751312432199</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.258575125106647</v>
@@ -11927,7 +11699,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.491793632139714</v>
+        <v>1.417819405863681</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.539873898392449</v>
@@ -12016,7 +11788,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.490894406152171</v>
+        <v>1.418708047535437</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.63435955659229</v>
@@ -12105,7 +11877,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.480318023045702</v>
+        <v>1.410438173849516</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.576945246424293</v>
@@ -12194,7 +11966,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.49064143475412</v>
+        <v>1.414314982358747</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.663445991857265</v>
@@ -12283,7 +12055,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.483882198508632</v>
+        <v>1.414756382252551</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.757509472568713</v>
@@ -12372,7 +12144,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.478380669235016</v>
+        <v>1.412634111709184</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.253103086984037</v>
@@ -12461,7 +12233,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.490130725173638</v>
+        <v>1.416928252973457</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.461153903430478</v>
@@ -12550,7 +12322,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.490515495336715</v>
+        <v>1.407810378710977</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.60374996276411</v>
@@ -12639,7 +12411,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.483243123633731</v>
+        <v>1.401494183288562</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.50427396715424</v>
@@ -12728,7 +12500,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.478299307694691</v>
+        <v>1.400552796649959</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.35883925460762</v>
@@ -12817,7 +12589,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.489210223822962</v>
+        <v>1.406296575664971</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.47410822731066</v>
@@ -12906,7 +12678,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.484273230711999</v>
+        <v>1.402096066191963</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.462168818526717</v>
@@ -12995,7 +12767,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.480902491937319</v>
+        <v>1.38861497826381</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.408967402651898</v>
@@ -13084,7 +12856,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.493809624633489</v>
+        <v>1.401044749269448</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.328004952646118</v>
@@ -13173,7 +12945,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.47734621061151</v>
+        <v>1.393027965483282</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.403412819493619</v>
@@ -13459,7 +13231,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.396651427018932</v>
+        <v>1.37852561340216</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.614979843488724</v>
@@ -13548,7 +13320,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.379488579320745</v>
+        <v>1.361686035469311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.479333434003291</v>
@@ -13637,7 +13409,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.384149108278347</v>
+        <v>1.361022521085986</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.556190340168073</v>
@@ -13726,7 +13498,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.370224711186625</v>
+        <v>1.349015142520973</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.48649269148226</v>
@@ -13815,7 +13587,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.369988977323396</v>
+        <v>1.347908381704938</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.486552610740183</v>
@@ -13904,7 +13676,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.37797462518672</v>
+        <v>1.351692169435031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.284398138815229</v>
@@ -13993,7 +13765,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.386385125092263</v>
+        <v>1.351504875035379</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.52283424051917</v>
@@ -14082,7 +13854,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.394586692033979</v>
+        <v>1.3557381305656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.485608060367782</v>
@@ -14171,7 +13943,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.398720746112467</v>
+        <v>1.356903584763244</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.566196930520132</v>
@@ -14260,7 +14032,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.407994197953284</v>
+        <v>1.357919817296599</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.653303849423646</v>
@@ -14349,7 +14121,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.404847759053679</v>
+        <v>1.352430802534422</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.514184776086836</v>
@@ -14438,7 +14210,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.410419282651974</v>
+        <v>1.360912624877499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.442034183696729</v>
@@ -14527,7 +14299,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.442183425544634</v>
+        <v>1.384051116654957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.222263498699586</v>
@@ -14616,7 +14388,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.453876240743412</v>
+        <v>1.374953417811537</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.732345556893179</v>
@@ -14705,7 +14477,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.445953192181911</v>
+        <v>1.357188548189986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.28725330031966</v>
@@ -14794,7 +14566,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442450824186765</v>
+        <v>1.355804085542813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.594204131423296</v>
@@ -14883,7 +14655,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46498683214212</v>
+        <v>1.371663777940878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.294391064171631</v>
@@ -14972,7 +14744,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.476884473499492</v>
+        <v>1.377764428117898</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.682386875339965</v>
@@ -15061,7 +14833,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.477377913685515</v>
+        <v>1.378499352457001</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.60978777261859</v>
@@ -15150,7 +14922,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484008467307853</v>
+        <v>1.386596482713089</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.620629257664849</v>
@@ -15239,7 +15011,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.476275307201598</v>
+        <v>1.383541859799118</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.419970443444799</v>
@@ -15328,7 +15100,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.49971899206716</v>
+        <v>1.412015592445948</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.599086287589576</v>
@@ -15417,7 +15189,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507458122426609</v>
+        <v>1.421018629835298</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.698788998075046</v>
@@ -15506,7 +15278,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495870249962056</v>
+        <v>1.415834391006172</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.765065951837952</v>
@@ -15595,7 +15367,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.486958092142853</v>
+        <v>1.415385327767772</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.543408208766625</v>
@@ -15684,7 +15456,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492333012740364</v>
+        <v>1.419274633462516</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.668534205590002</v>
@@ -15773,7 +15545,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.502848354908616</v>
+        <v>1.42539695635844</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.513479861611462</v>
@@ -15862,7 +15634,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.496243996341045</v>
+        <v>1.41891872685091</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.702337224754203</v>
@@ -15951,7 +15723,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.501593091959045</v>
+        <v>1.423514562875463</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.58894026637029</v>
@@ -16040,7 +15812,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.477651464864861</v>
+        <v>1.406486930862858</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.615286829213213</v>
@@ -16129,7 +15901,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.47817294092194</v>
+        <v>1.408983913160381</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.635774326826553</v>
@@ -16218,7 +15990,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.479929561392429</v>
+        <v>1.412522697678807</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.788011590095573</v>
@@ -16307,7 +16079,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483853680869276</v>
+        <v>1.414601674757275</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.793355751663587</v>
@@ -16396,7 +16168,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.481887278174897</v>
+        <v>1.414880606983908</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.531757797488399</v>
@@ -16485,7 +16257,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.494190529683771</v>
+        <v>1.420265258994918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.821868321140623</v>
@@ -16574,7 +16346,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.485584059090971</v>
+        <v>1.409654198091387</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.679541708786009</v>
@@ -16663,7 +16435,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478544446058072</v>
+        <v>1.398586858195461</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.677338947747449</v>
@@ -16752,7 +16524,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.471769153914379</v>
+        <v>1.398895598268976</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.562534705502634</v>
@@ -16841,7 +16613,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.465519296017241</v>
+        <v>1.391566557535747</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.636276876221141</v>
@@ -16930,7 +16702,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469719057469062</v>
+        <v>1.394168667784743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.7865761468327</v>
@@ -17019,7 +16791,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.462894188393225</v>
+        <v>1.392465808039511</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.639377635130606</v>
@@ -17108,7 +16880,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.456376009550627</v>
+        <v>1.391844365059737</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.66223115973727</v>
@@ -17197,7 +16969,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.457284238696473</v>
+        <v>1.39797717258548</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.504517138966895</v>
@@ -17286,7 +17058,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.453773830074045</v>
+        <v>1.396533034318417</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.55803947892299</v>
@@ -17375,7 +17147,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.460222587923954</v>
+        <v>1.400960241282647</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.540198231979458</v>
@@ -17464,7 +17236,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.469652914176041</v>
+        <v>1.408650988285473</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.340379559848216</v>
@@ -17553,7 +17325,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.468631240070924</v>
+        <v>1.403524216777996</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.62791357404656</v>
@@ -17642,7 +17414,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456053653888035</v>
+        <v>1.395160895162862</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.710341001809515</v>
@@ -17731,7 +17503,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.459924506548978</v>
+        <v>1.398273361741666</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.408065343224278</v>
@@ -17820,7 +17592,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.452786940532721</v>
+        <v>1.392370869291493</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.375291659209451</v>
@@ -17909,7 +17681,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.469877293870407</v>
+        <v>1.40601867510447</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.677722727130618</v>
@@ -17998,7 +17770,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.457599779683227</v>
+        <v>1.39879382462862</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.598443362738831</v>
@@ -18087,7 +17859,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.464443203629405</v>
+        <v>1.393619680801923</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.478935797928899</v>
@@ -18176,7 +17948,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.482868652726558</v>
+        <v>1.401640580116476</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.547646660971528</v>
@@ -18265,7 +18037,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.466904175451657</v>
+        <v>1.392753305116386</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.651364533194561</v>
@@ -18354,7 +18126,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.480229422800808</v>
+        <v>1.402577042945873</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.463259108343663</v>
@@ -18443,7 +18215,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.486848419367529</v>
+        <v>1.405161885756046</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.739429846840529</v>
@@ -18532,7 +18304,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.474977892959016</v>
+        <v>1.397566149849303</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.519706401564496</v>
@@ -18621,7 +18393,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.478465751544635</v>
+        <v>1.399001698556263</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.568585732141623</v>
@@ -18710,7 +18482,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.49404543154701</v>
+        <v>1.410837991916272</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.647001313774362</v>
@@ -18799,7 +18571,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.498455734905784</v>
+        <v>1.416571141942586</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.705386719093475</v>
@@ -18888,7 +18660,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488205007202803</v>
+        <v>1.407972825552679</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.406814230711569</v>
@@ -18977,7 +18749,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.504643144030685</v>
+        <v>1.420419548609275</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.454335760701396</v>
@@ -19066,7 +18838,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.512875610414665</v>
+        <v>1.430650528038127</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.530420072244234</v>
@@ -19155,7 +18927,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.521029507915525</v>
+        <v>1.439198685002248</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.685489535895497</v>
@@ -19244,7 +19016,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.520482769932424</v>
+        <v>1.435659329297957</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.431609460794623</v>
@@ -19333,7 +19105,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.52891671686567</v>
+        <v>1.443262963967812</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.528661642749329</v>
@@ -19422,7 +19194,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.535193876435045</v>
+        <v>1.454872272583014</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.602590369552767</v>
@@ -19511,7 +19283,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.526590280052597</v>
+        <v>1.454583319631725</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.593599010079638</v>
@@ -19600,7 +19372,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.528183836099175</v>
+        <v>1.458674770369213</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.807396300732415</v>
@@ -19689,7 +19461,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.528804789282125</v>
+        <v>1.458131615646517</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.784396912219688</v>
@@ -19778,7 +19550,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.521004410924293</v>
+        <v>1.452529897834393</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.548696421068263</v>
@@ -19867,7 +19639,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.528728896444772</v>
+        <v>1.446166558824209</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.687494718048782</v>
@@ -19956,7 +19728,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.522197180081862</v>
+        <v>1.438148191711271</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.689574225143395</v>
@@ -20045,7 +19817,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.522283596194352</v>
+        <v>1.436337180733266</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.709291708587802</v>
@@ -20134,7 +19906,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.516281154426314</v>
+        <v>1.428756292471976</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.439222344541936</v>
@@ -20223,7 +19995,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.534457643532278</v>
+        <v>1.444548540658153</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.568798529252384</v>
@@ -20312,7 +20084,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.53251987623563</v>
+        <v>1.44790712594891</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.553814954992287</v>
@@ -20401,7 +20173,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.529219674555752</v>
+        <v>1.431300405565579</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.615586661276503</v>
@@ -20490,7 +20262,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.535703642242218</v>
+        <v>1.434426674744801</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.564797244124214</v>
@@ -20579,7 +20351,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.519475436093846</v>
+        <v>1.432904148700188</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.47933351869024</v>
@@ -20865,7 +20637,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.644427530350032</v>
+        <v>1.575570932862335</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.6129385976272</v>
@@ -20954,7 +20726,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.647114527834897</v>
+        <v>1.575935893824172</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.254926301527126</v>
@@ -21043,7 +20815,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.649194817546265</v>
+        <v>1.567428890116644</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.396842242940611</v>
@@ -21132,7 +20904,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.648911779259574</v>
+        <v>1.571179235088131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.507927376909111</v>
@@ -21221,7 +20993,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665860959486478</v>
+        <v>1.588714814208877</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.135170416044353</v>
@@ -21310,7 +21082,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.66715041764092</v>
+        <v>1.595695860313619</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.285927146421298</v>
@@ -21399,7 +21171,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.671006995231014</v>
+        <v>1.589153073271641</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.25471111703407</v>
@@ -21488,7 +21260,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.664778260441736</v>
+        <v>1.576638950610051</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.380909933129506</v>
@@ -21577,7 +21349,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665773600799938</v>
+        <v>1.580490191818496</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.535038035773265</v>
@@ -21666,7 +21438,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660135635549272</v>
+        <v>1.570841511898741</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.951476670891554</v>
@@ -21755,7 +21527,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658034632889762</v>
+        <v>1.566708287408214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.996102490207877</v>
@@ -21844,7 +21616,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669564214115358</v>
+        <v>1.57355786158014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.100186489733942</v>
@@ -21933,7 +21705,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.679654853441662</v>
+        <v>1.579803515554571</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.372664786975772</v>
@@ -22022,7 +21794,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674042819268752</v>
+        <v>1.571308747421265</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.93623639655413</v>
@@ -22111,7 +21883,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675147362437726</v>
+        <v>1.56777345251612</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.214500155777706</v>
@@ -22200,7 +21972,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671174809320574</v>
+        <v>1.557846420360225</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081267345132387</v>
@@ -22289,7 +22061,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.66754840334215</v>
+        <v>1.551317022887904</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.759292289382685</v>
@@ -22378,7 +22150,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667669172836058</v>
+        <v>1.558253189772081</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.412018776736696</v>
@@ -22467,7 +22239,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.674154334039111</v>
+        <v>1.559524199007038</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.607391714455466</v>
@@ -22556,7 +22328,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.673039941334903</v>
+        <v>1.560253529418903</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.739583406013158</v>
@@ -22645,7 +22417,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678244101633888</v>
+        <v>1.5638929312818</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.629233040599444</v>
@@ -22734,7 +22506,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.685386102675895</v>
+        <v>1.574554479911336</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.671448136962255</v>
@@ -22823,7 +22595,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.696725252929289</v>
+        <v>1.591567274838043</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.299442168682237</v>
@@ -22912,7 +22684,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.692411321558816</v>
+        <v>1.586103211593942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.512098920824831</v>
@@ -23001,7 +22773,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.700236222819745</v>
+        <v>1.59269155040383</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.613964746952051</v>
@@ -23090,7 +22862,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.707339471970766</v>
+        <v>1.590789747456258</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.601667745408822</v>
@@ -23179,7 +22951,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.705409058108633</v>
+        <v>1.590419512122689</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.599940365632559</v>
@@ -23268,7 +23040,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.686253039691556</v>
+        <v>1.566296375640821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.663133999641316</v>
@@ -23357,7 +23129,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686261910166792</v>
+        <v>1.565661051584709</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.149896497841833</v>
@@ -23446,7 +23218,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674633117380448</v>
+        <v>1.551233934654339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.474263461050692</v>
@@ -23535,7 +23307,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675249906828906</v>
+        <v>1.546503162662335</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.181754729487833</v>
@@ -23624,7 +23396,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.68031636794216</v>
+        <v>1.555326102900708</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.828115644697022</v>
@@ -23713,7 +23485,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672551850358857</v>
+        <v>1.541091730473565</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.265231807085051</v>
@@ -23802,7 +23574,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670906726938509</v>
+        <v>1.538769075895298</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.2918510979442</v>
@@ -23891,7 +23663,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.660003874754185</v>
+        <v>1.525379648122539</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.03120256350413</v>
@@ -23980,7 +23752,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660468462534777</v>
+        <v>1.52281866823058</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.234288543771399</v>
@@ -24069,7 +23841,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64871419864424</v>
+        <v>1.512079262956421</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.256980119377993</v>
@@ -24158,7 +23930,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64530386672466</v>
+        <v>1.509590578762786</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.823825938133392</v>
@@ -24247,7 +24019,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643238581148617</v>
+        <v>1.500802047732454</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.055268758772097</v>
@@ -24336,7 +24108,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.634913153669888</v>
+        <v>1.492656826100903</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.017491343327236</v>
@@ -24425,7 +24197,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637162728691347</v>
+        <v>1.504678534366893</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.206095061863273</v>
@@ -24514,7 +24286,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640528305776543</v>
+        <v>1.509998948773937</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.320667400969419</v>
@@ -24603,7 +24375,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644440406007396</v>
+        <v>1.517202346387546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.280453127447179</v>
@@ -24692,7 +24464,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.6411309820341</v>
+        <v>1.513509581674478</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.124402017822633</v>
@@ -24781,7 +24553,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651501027295487</v>
+        <v>1.527061180250512</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.764113216523295</v>
@@ -24870,7 +24642,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653690136842275</v>
+        <v>1.528783597139511</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.480929759339435</v>
@@ -24959,7 +24731,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654851321956121</v>
+        <v>1.526615043464419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.633862668185215</v>
@@ -25048,7 +24820,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.659215530984868</v>
+        <v>1.533287907731965</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.471989696904658</v>
@@ -25137,7 +24909,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654012561461929</v>
+        <v>1.530054480504381</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.459346471148252</v>
@@ -25226,7 +24998,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656412090008683</v>
+        <v>1.536420626458278</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.275360480295923</v>
@@ -25315,7 +25087,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642385186892767</v>
+        <v>1.516688200792248</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.450042653227698</v>
@@ -25404,7 +25176,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.643332129615591</v>
+        <v>1.522539643538301</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.620372433260218</v>
@@ -25493,7 +25265,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.644342917803652</v>
+        <v>1.510297998330125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.007061692237172</v>
@@ -25582,7 +25354,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.648072675437479</v>
+        <v>1.513100151966508</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.833400543651216</v>
@@ -25671,7 +25443,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650315689311131</v>
+        <v>1.519894229036731</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.926656806555291</v>
@@ -25760,7 +25532,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.649439527245372</v>
+        <v>1.514997114454034</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.008619694625382</v>
@@ -25849,7 +25621,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.647066728865849</v>
+        <v>1.50975513592312</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.715269074151142</v>
@@ -25938,7 +25710,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.660803661024282</v>
+        <v>1.521670352923728</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.706993740249045</v>
@@ -26027,7 +25799,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.660678254064476</v>
+        <v>1.522781208738304</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.797304263541765</v>
@@ -26116,7 +25888,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.654097132639121</v>
+        <v>1.514465961791217</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.935929515057838</v>
@@ -26205,7 +25977,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.644135220813968</v>
+        <v>1.516939635466904</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.479873034026611</v>
@@ -26294,7 +26066,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.650844442848025</v>
+        <v>1.524977056399566</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.528891960839854</v>
@@ -26383,7 +26155,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.655647030437191</v>
+        <v>1.52571289671678</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.612199708539429</v>
@@ -26472,7 +26244,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.663962222691898</v>
+        <v>1.538363856471403</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.307049890977663</v>
@@ -26561,7 +26333,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.668709332707296</v>
+        <v>1.536982110361474</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.9973086392924</v>
@@ -26650,7 +26422,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.6692676733353</v>
+        <v>1.540303122246433</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.655363826972666</v>
@@ -26739,7 +26511,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.670759049445799</v>
+        <v>1.536127842768142</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.546242949341818</v>
@@ -26828,7 +26600,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.677225261100626</v>
+        <v>1.550316738859722</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.427008339005718</v>
@@ -26917,7 +26689,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.665096834562404</v>
+        <v>1.547594975754055</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.708547853388612</v>
@@ -27006,7 +26778,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.671927166453477</v>
+        <v>1.547907531319125</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.54328500511729</v>
@@ -27095,7 +26867,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.66846275679674</v>
+        <v>1.540257172937129</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.71376629430092</v>
@@ -27184,7 +26956,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.675240658985949</v>
+        <v>1.547509504786484</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.2946133684876</v>
@@ -27273,7 +27045,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.660944919006346</v>
+        <v>1.530397859597235</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.211570186172776</v>
@@ -27362,7 +27134,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.661859951999271</v>
+        <v>1.522189097919089</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.62063430126471</v>
@@ -27451,7 +27223,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.657202801227425</v>
+        <v>1.517678050972796</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.885244381660705</v>
@@ -27540,7 +27312,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.672033991268524</v>
+        <v>1.527934326070599</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.0473401205849</v>
@@ -27629,7 +27401,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.668684870264421</v>
+        <v>1.520541417936715</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.741949235000087</v>
@@ -27718,7 +27490,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.668591359861612</v>
+        <v>1.519690599499922</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.87540871698172</v>
@@ -27807,7 +27579,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.663581747608118</v>
+        <v>1.505814372279929</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.632606784693767</v>
@@ -27896,7 +27668,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.658063395799783</v>
+        <v>1.504351297053262</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.61832783986771</v>
@@ -27985,7 +27757,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.661284909808275</v>
+        <v>1.511334029273106</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.854645378439262</v>
@@ -28271,7 +28043,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620486894019542</v>
+        <v>1.54259165541629</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.653335082996815</v>
@@ -28360,7 +28132,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616208379504208</v>
+        <v>1.546735399235292</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.632893575940622</v>
@@ -28449,7 +28221,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617208341193671</v>
+        <v>1.545116928589088</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.714781733539269</v>
@@ -28538,7 +28310,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619594008762381</v>
+        <v>1.549051132435488</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.748577275580794</v>
@@ -28627,7 +28399,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631468381163395</v>
+        <v>1.557433208867317</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.62431996860284</v>
@@ -28716,7 +28488,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.623474596246182</v>
+        <v>1.547645190602822</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.744988287892979</v>
@@ -28805,7 +28577,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619831226652638</v>
+        <v>1.554021951393818</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.687968707099662</v>
@@ -28894,7 +28666,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614300206904469</v>
+        <v>1.554964611273199</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.64975182663022</v>
@@ -28983,7 +28755,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613850918971119</v>
+        <v>1.55328455395475</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.6455122524109</v>
@@ -29072,7 +28844,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614891123216223</v>
+        <v>1.557721315907295</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.532648140887843</v>
@@ -29161,7 +28933,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.631062743365838</v>
+        <v>1.574118824910318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.604588354439226</v>
@@ -29250,7 +29022,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646943327769815</v>
+        <v>1.57695921262916</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.441310532539039</v>
@@ -29339,7 +29111,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660754302737649</v>
+        <v>1.585488028807645</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.109753158021762</v>
@@ -29428,7 +29200,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669573837700095</v>
+        <v>1.585897350341722</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.29307036070596</v>
@@ -29517,7 +29289,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671359923160216</v>
+        <v>1.582286362315441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.88820473013293</v>
@@ -29606,7 +29378,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671941444615468</v>
+        <v>1.581900243385377</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.870247397100009</v>
@@ -29695,7 +29467,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663944517667423</v>
+        <v>1.564412920325271</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.173255626898655</v>
@@ -29784,7 +29556,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.670147322132831</v>
+        <v>1.578651857036747</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.287208065629549</v>
@@ -29873,7 +29645,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666714806270726</v>
+        <v>1.570049982277879</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.201721554928221</v>
@@ -29962,7 +29734,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.659619202246241</v>
+        <v>1.558204433425114</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.328576428137534</v>
@@ -30051,7 +29823,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665164279276391</v>
+        <v>1.568544600248398</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.777651902450529</v>
@@ -30140,7 +29912,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680322910177825</v>
+        <v>1.575045737245114</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.19499144391233</v>
@@ -30229,7 +30001,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690874875550274</v>
+        <v>1.583810117524969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.005902199981683</v>
@@ -30318,7 +30090,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.69667310714107</v>
+        <v>1.585845271511477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.99513197406716</v>
@@ -30407,7 +30179,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696738396234871</v>
+        <v>1.585154511254589</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.117495486939412</v>
@@ -30496,7 +30268,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.700101454751946</v>
+        <v>1.582334736191419</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.343640087122356</v>
@@ -30585,7 +30357,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.70453889810059</v>
+        <v>1.591695452311845</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.584905406354983</v>
@@ -30674,7 +30446,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694747458453845</v>
+        <v>1.571525057089748</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.392327196022519</v>
@@ -30763,7 +30535,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678742468674097</v>
+        <v>1.560952844390314</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.195788154707104</v>
@@ -30852,7 +30624,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.648591451026615</v>
+        <v>1.53642597309533</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.765979355566231</v>
@@ -30941,7 +30713,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63973771445659</v>
+        <v>1.52819664665572</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.692038931993287</v>
@@ -31030,7 +30802,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.651737030299559</v>
+        <v>1.54108941770889</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.156465288430533</v>
@@ -31119,7 +30891,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.647376687530034</v>
+        <v>1.533023372983098</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.781295001721234</v>
@@ -31208,7 +30980,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.647411055355413</v>
+        <v>1.534151159457906</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.1232175106964</v>
@@ -31297,7 +31069,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638195614835174</v>
+        <v>1.528231813125519</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.021736083362062</v>
@@ -31386,7 +31158,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.636042733924147</v>
+        <v>1.52930151911227</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.957132417842714</v>
@@ -31475,7 +31247,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633889901012504</v>
+        <v>1.529063618341352</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.960303457019068</v>
@@ -31564,7 +31336,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617750017499196</v>
+        <v>1.515393357950209</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.108561546002849</v>
@@ -31653,7 +31425,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623441551523267</v>
+        <v>1.519250744304105</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.86773690137894</v>
@@ -31742,7 +31514,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612724453398877</v>
+        <v>1.510717940241782</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.911258822965588</v>
@@ -31831,7 +31603,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607820418881166</v>
+        <v>1.511139390852875</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.021821453304475</v>
@@ -31920,7 +31692,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609017183223586</v>
+        <v>1.514429004128421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.980054901991938</v>
@@ -32009,7 +31781,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.610225620037429</v>
+        <v>1.52103675421822</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.920285930939473</v>
@@ -32098,7 +31870,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625765998872503</v>
+        <v>1.533098245492563</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.668938899426505</v>
@@ -32187,7 +31959,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651198010625319</v>
+        <v>1.547450047013809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.234681076405742</v>
@@ -32276,7 +32048,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658981059049059</v>
+        <v>1.551157338312978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.654545281241248</v>
@@ -32365,7 +32137,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654296078545306</v>
+        <v>1.539698645004826</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.018126887461507</v>
@@ -32454,7 +32226,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648942855024731</v>
+        <v>1.52427692043875</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.690490948311085</v>
@@ -32543,7 +32315,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.642493599759907</v>
+        <v>1.515270191611673</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.498652039918516</v>
@@ -32632,7 +32404,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.644606911534194</v>
+        <v>1.512871178668106</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.272845699173414</v>
@@ -32721,7 +32493,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642167965495864</v>
+        <v>1.504403440722877</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.21952012529602</v>
@@ -32810,7 +32582,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.641104131775303</v>
+        <v>1.502964034083258</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.847338533734972</v>
@@ -32899,7 +32671,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.649917976674421</v>
+        <v>1.506183857713799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.728006714763656</v>
@@ -32988,7 +32760,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.656909652573648</v>
+        <v>1.513671349407507</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.524865883960312</v>
@@ -33077,7 +32849,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.671914062618157</v>
+        <v>1.527407821745379</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.831199071964658</v>
@@ -33166,7 +32938,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.664549061897019</v>
+        <v>1.517284366627373</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.513812074576864</v>
@@ -33255,7 +33027,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.661735378227092</v>
+        <v>1.510799818360414</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.460610340248537</v>
@@ -33344,7 +33116,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.669664476161225</v>
+        <v>1.519592912636431</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.857144710234629</v>
@@ -33433,7 +33205,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.662282449864837</v>
+        <v>1.511048696157636</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.063725282280855</v>
@@ -33522,7 +33294,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.649493490428524</v>
+        <v>1.5022573401296</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.996576870641229</v>
@@ -33611,7 +33383,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.639006119652507</v>
+        <v>1.504868035640617</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.710251653598292</v>
@@ -33700,7 +33472,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.640981354663891</v>
+        <v>1.510228916687612</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.92434310607132</v>
@@ -33789,7 +33561,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649817617392419</v>
+        <v>1.525421235767106</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.895110986873529</v>
@@ -33878,7 +33650,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.65142057896224</v>
+        <v>1.531544962416084</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.552710633541813</v>
@@ -33967,7 +33739,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.659116447122333</v>
+        <v>1.542873718943776</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.252046408413488</v>
@@ -34056,7 +33828,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.662823931002735</v>
+        <v>1.555034309811145</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.904370972798266</v>
@@ -34145,7 +33917,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.664040530599359</v>
+        <v>1.554085635172824</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.963233905130378</v>
@@ -34234,7 +34006,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.668305427567615</v>
+        <v>1.558254909058373</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.233844161655552</v>
@@ -34323,7 +34095,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.653720239332763</v>
+        <v>1.544953223740083</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.195471273548921</v>
@@ -34412,7 +34184,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.647899104148741</v>
+        <v>1.535058210391977</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.587558460315599</v>
@@ -34501,7 +34273,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.652918425752989</v>
+        <v>1.536017349809103</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.474881407248592</v>
@@ -34590,7 +34362,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.654802215141916</v>
+        <v>1.531363469350406</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.116567894741996</v>
@@ -34679,7 +34451,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.648131280430681</v>
+        <v>1.520565357227273</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.500180266761427</v>
@@ -34768,7 +34540,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.656505020483394</v>
+        <v>1.526157067704918</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.578071854106493</v>
@@ -34857,7 +34629,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.663401754800163</v>
+        <v>1.530736822655741</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.449769370350396</v>
@@ -34946,7 +34718,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.676292004048678</v>
+        <v>1.528961155127307</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.975804695037156</v>
@@ -35035,7 +34807,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.683006733831837</v>
+        <v>1.532525701492691</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.361446220062302</v>
@@ -35124,7 +34896,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.682996564528436</v>
+        <v>1.529187627637711</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.175550794719732</v>
@@ -35213,7 +34985,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.682092457555987</v>
+        <v>1.522509045076936</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.474242881040643</v>
@@ -35302,7 +35074,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.689473123799759</v>
+        <v>1.528057821859094</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.649140519419322</v>
@@ -35391,7 +35163,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.691308868389531</v>
+        <v>1.529142656958522</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.74959655594196</v>
@@ -35677,7 +35449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.350464276680176</v>
+        <v>1.329801674984791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.969479072350044</v>
@@ -35766,7 +35538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.313373491676206</v>
+        <v>1.301085790750647</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.038824875375235</v>
@@ -35855,7 +35627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.309065465839972</v>
+        <v>1.298816609509987</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.992027843578498</v>
@@ -35944,7 +35716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.311573979031674</v>
+        <v>1.299597914584219</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.942182280672785</v>
@@ -36033,7 +35805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.314751980916951</v>
+        <v>1.304953475503529</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.990390882779609</v>
@@ -36122,7 +35894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.306327244353844</v>
+        <v>1.291155070532723</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.018303470761803</v>
@@ -36211,7 +35983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.309667954205196</v>
+        <v>1.298552522471094</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.964793189540426</v>
@@ -36300,7 +36072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.318748406207718</v>
+        <v>1.308010721908361</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.010446095592994</v>
@@ -36389,7 +36161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.315857207076104</v>
+        <v>1.304903882768762</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.003462093612877</v>
@@ -36478,7 +36250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.319147687056875</v>
+        <v>1.309529108790785</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.947370620352407</v>
@@ -36567,7 +36339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.317735393480587</v>
+        <v>1.3121166427227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.968335118706525</v>
@@ -36656,7 +36428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.331295218510065</v>
+        <v>1.326698483510107</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.940455953753555</v>
@@ -36745,7 +36517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.371236887802729</v>
+        <v>1.361153501811005</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.942052813164093</v>
@@ -36834,7 +36606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.387060827461037</v>
+        <v>1.365758192161671</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.908215656905664</v>
@@ -36923,7 +36695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.451989107357181</v>
+        <v>1.413806919256464</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.111125277603958</v>
@@ -37012,7 +36784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446170350191156</v>
+        <v>1.407136089326177</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.847465577677287</v>
@@ -37101,7 +36873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540249514698015</v>
+        <v>1.479076878743912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.540742819414734</v>
@@ -37190,7 +36962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556550180028401</v>
+        <v>1.489918076960617</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.844106790052901</v>
@@ -37279,7 +37051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.551702924309066</v>
+        <v>1.485439564937933</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.731580539844759</v>
@@ -37368,7 +37140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551603184333886</v>
+        <v>1.482869320263436</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.838292381954807</v>
@@ -37457,7 +37229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549573145559662</v>
+        <v>1.486487524080277</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.882786116203683</v>
@@ -37546,7 +37318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.549648493307282</v>
+        <v>1.487542406220691</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.798156965761628</v>
@@ -37635,7 +37407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553133224002526</v>
+        <v>1.477577004676405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.761937081451646</v>
@@ -37724,7 +37496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53978197150712</v>
+        <v>1.467679918483027</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.801236521525663</v>
@@ -37813,7 +37585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.526719768807719</v>
+        <v>1.459228351478461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.770439589017379</v>
@@ -37902,7 +37674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.532545594031445</v>
+        <v>1.458446272435673</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.886209541534463</v>
@@ -37991,7 +37763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531896292501567</v>
+        <v>1.459080797192796</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.649254499428344</v>
@@ -38080,7 +37852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.51660726640241</v>
+        <v>1.439544742804637</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.740778173337124</v>
@@ -38169,7 +37941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.49612853013451</v>
+        <v>1.424800813173883</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.756428175978368</v>
@@ -38258,7 +38030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.478652389523231</v>
+        <v>1.412518334217582</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.522645922397799</v>
@@ -38347,7 +38119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.49094854465278</v>
+        <v>1.417981484768621</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.576781527741028</v>
@@ -38436,7 +38208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.496695546503791</v>
+        <v>1.418843125284297</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.455963823092576</v>
@@ -38525,7 +38297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500898810286387</v>
+        <v>1.429337881209996</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.670650172430248</v>
@@ -38614,7 +38386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.492384059236928</v>
+        <v>1.425047583024291</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.559906502568393</v>
@@ -38703,7 +38475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.490103894609625</v>
+        <v>1.426345442078806</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.790156197747366</v>
@@ -38792,7 +38564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48555793327474</v>
+        <v>1.420503261898206</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.614425253726501</v>
@@ -38881,7 +38653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48159334179217</v>
+        <v>1.417496069975345</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.772830462808067</v>
@@ -38970,7 +38742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478337498519479</v>
+        <v>1.426817963361152</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.471349160075025</v>
@@ -39059,7 +38831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.485429359969281</v>
+        <v>1.432273543663778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.526135379037133</v>
@@ -39148,7 +38920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.492820484414603</v>
+        <v>1.440008662089409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.747885293361293</v>
@@ -39237,7 +39009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.485596797166549</v>
+        <v>1.436864226611785</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.690849126904977</v>
@@ -39326,7 +39098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488520959705896</v>
+        <v>1.445384099385581</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.766971694903505</v>
@@ -39415,7 +39187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494628804437592</v>
+        <v>1.459352096424942</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.764453858165655</v>
@@ -39504,7 +39276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507858203852292</v>
+        <v>1.471135782686711</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.489742696757282</v>
@@ -39593,7 +39365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525226620695656</v>
+        <v>1.482873778236243</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.001508231770939</v>
@@ -39682,7 +39454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540445512813112</v>
+        <v>1.498625777890709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.031511178784604</v>
@@ -39771,7 +39543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.536287689802076</v>
+        <v>1.494823569691746</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.778715890963923</v>
@@ -39860,7 +39632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.539090430909153</v>
+        <v>1.492658524503471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.66536880515905</v>
@@ -39949,7 +39721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551534521009903</v>
+        <v>1.502489371009265</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.567885990764611</v>
@@ -40038,7 +39810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552545338244897</v>
+        <v>1.498551057634367</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.830869739441717</v>
@@ -40127,7 +39899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562673201735096</v>
+        <v>1.499213502257599</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.734394257926922</v>
@@ -40216,7 +39988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562198591078305</v>
+        <v>1.4916978376333</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.933879157939489</v>
@@ -40305,7 +40077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.577542024628342</v>
+        <v>1.496469795458816</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.977318501768165</v>
@@ -40394,7 +40166,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583017101575227</v>
+        <v>1.500422037804035</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.705949389244721</v>
@@ -40483,7 +40255,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57639811157062</v>
+        <v>1.492388297845056</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.869127112867273</v>
@@ -40572,7 +40344,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583257094973009</v>
+        <v>1.491925196489075</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.211717429283482</v>
@@ -40661,7 +40433,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.583310577541659</v>
+        <v>1.484006262808096</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.981616524984159</v>
@@ -40750,7 +40522,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578808169050368</v>
+        <v>1.476519992445971</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.213294548206418</v>
@@ -40839,7 +40611,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571147940706224</v>
+        <v>1.469314181916166</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.20946589900449</v>
@@ -40928,7 +40700,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.581458750547506</v>
+        <v>1.479453309907155</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.33702274245784</v>
@@ -41017,7 +40789,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.580376375654272</v>
+        <v>1.482778489481007</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.94118789796603</v>
@@ -41106,7 +40878,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.573353487469709</v>
+        <v>1.480121371664305</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.793435252278585</v>
@@ -41195,7 +40967,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.576843856309663</v>
+        <v>1.481082429387953</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.045067314213257</v>
@@ -41284,7 +41056,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.58272461078138</v>
+        <v>1.490481488912856</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.041062340651242</v>
@@ -41373,7 +41145,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.585580499383341</v>
+        <v>1.487149931149098</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.725231712162802</v>
@@ -41462,7 +41234,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.591985769580438</v>
+        <v>1.493600180713764</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.708733864243802</v>
@@ -41551,7 +41323,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.596077374217633</v>
+        <v>1.507175034350849</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.648534809214909</v>
@@ -41640,7 +41412,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.591613781770935</v>
+        <v>1.495181177849857</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.720359527716048</v>
@@ -41729,7 +41501,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.591791353804425</v>
+        <v>1.495254869083835</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.918392393855236</v>
@@ -41818,7 +41590,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.590608740612804</v>
+        <v>1.497775854845198</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.824217598380764</v>
@@ -41907,7 +41679,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.592535251146829</v>
+        <v>1.505929322399809</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.63014480915709</v>
@@ -41996,7 +41768,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.591235325069844</v>
+        <v>1.503576441904991</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.681545612365029</v>
@@ -42085,7 +41857,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.603043554326812</v>
+        <v>1.516523017863807</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.847537280669884</v>
@@ -42174,7 +41946,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.604989235191519</v>
+        <v>1.520566792253075</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.940500747062845</v>
@@ -42263,7 +42035,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.608845308480593</v>
+        <v>1.520546085277486</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.871595666524331</v>
@@ -42352,7 +42124,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.605858387165823</v>
+        <v>1.515860678491936</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.627904742113434</v>
@@ -42441,7 +42213,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.618402989098767</v>
+        <v>1.521342675031304</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.620673320411275</v>
@@ -42530,7 +42302,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.62133251100528</v>
+        <v>1.527542052903609</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.566383213652665</v>
@@ -42619,7 +42391,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.615589054252317</v>
+        <v>1.516088039083215</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.470037585493408</v>
@@ -42708,7 +42480,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.627997427350182</v>
+        <v>1.534234325270003</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.807319244645543</v>
@@ -42797,7 +42569,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.625686484167488</v>
+        <v>1.541906710694837</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.69484226888855</v>
@@ -43083,7 +42855,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452199371167904</v>
+        <v>1.404085712675702</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.4843337885054</v>
@@ -43172,7 +42944,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.451750701205404</v>
+        <v>1.409506063861565</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.568328725004539</v>
@@ -43261,7 +43033,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.442853179756825</v>
+        <v>1.395519306401024</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.417239931171714</v>
@@ -43350,7 +43122,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.437477394607488</v>
+        <v>1.392209200395037</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.315601650919405</v>
@@ -43439,7 +43211,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455032206209803</v>
+        <v>1.404598913250198</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.654076350004692</v>
@@ -43528,7 +43300,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.476088729119602</v>
+        <v>1.41418328360571</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.388081729169904</v>
@@ -43617,7 +43389,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462270260871508</v>
+        <v>1.405737704454179</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.336709668308896</v>
@@ -43706,7 +43478,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.478271685021643</v>
+        <v>1.418694200668062</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.281596202195596</v>
@@ -43795,7 +43567,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.479415368146247</v>
+        <v>1.417284099837829</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.36639099041002</v>
@@ -43884,7 +43656,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.47458347067139</v>
+        <v>1.413994940369491</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.280878047561803</v>
@@ -43973,7 +43745,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.466168750410375</v>
+        <v>1.406073094377553</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.311609102443045</v>
@@ -44062,7 +43834,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474440551945744</v>
+        <v>1.408839149842467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.296384849264862</v>
@@ -44151,7 +43923,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.493721277133745</v>
+        <v>1.421755790353161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.483224755738399</v>
@@ -44240,7 +44012,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.49749451389633</v>
+        <v>1.424614962673451</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.35176022003146</v>
@@ -44329,7 +44101,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496426346244699</v>
+        <v>1.418274557972999</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.374563421026481</v>
@@ -44418,7 +44190,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.488093071483559</v>
+        <v>1.412316901443621</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.259018486515416</v>
@@ -44507,7 +44279,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48891156071917</v>
+        <v>1.413032748181237</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.423402624871066</v>
@@ -44596,7 +44368,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.498108359635803</v>
+        <v>1.418192384522746</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.422365154088721</v>
@@ -44685,7 +44457,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.494591892580486</v>
+        <v>1.414651896256054</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.336779211277347</v>
@@ -44774,7 +44546,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493241062596939</v>
+        <v>1.416380803635121</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.250671023603796</v>
@@ -44863,7 +44635,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492049207381986</v>
+        <v>1.423503725355904</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.38557799237554</v>
@@ -44952,7 +44724,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525903726255528</v>
+        <v>1.456581343074154</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.568951958088339</v>
@@ -45041,7 +44813,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.531648663299076</v>
+        <v>1.464459841092203</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.460419522479054</v>
@@ -45130,7 +44902,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519010777550183</v>
+        <v>1.448448133539286</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.300747082657242</v>
@@ -45219,7 +44991,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.501195139554167</v>
+        <v>1.444047575107357</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.215091543070278</v>
@@ -45308,7 +45080,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.501356948496579</v>
+        <v>1.442385112421208</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.381805352924275</v>
@@ -45397,7 +45169,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515409933031115</v>
+        <v>1.458670873692559</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.299188065589695</v>
@@ -45486,7 +45258,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.510109727754065</v>
+        <v>1.442537156080729</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.237159176090072</v>
@@ -45575,7 +45347,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.506573453223176</v>
+        <v>1.441742901815901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.450243027330817</v>
@@ -45664,7 +45436,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.478078431811108</v>
+        <v>1.416180090542675</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.15278167318503</v>
@@ -45753,7 +45525,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470666034557737</v>
+        <v>1.406446957051414</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.126621026901416</v>
@@ -45842,7 +45614,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470091500243178</v>
+        <v>1.405458647831034</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.254337020575203</v>
@@ -45931,7 +45703,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486249882195336</v>
+        <v>1.419704420941195</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.486091795396073</v>
@@ -46020,7 +45792,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.493419963158432</v>
+        <v>1.428765678650748</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.204599629032306</v>
@@ -46109,7 +45881,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.518136921272451</v>
+        <v>1.448814267575939</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.244672726018493</v>
@@ -46198,7 +45970,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.498819431717954</v>
+        <v>1.434057042028793</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.21121577597806</v>
@@ -46287,7 +46059,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.49298655600617</v>
+        <v>1.426866364654539</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.253439578727952</v>
@@ -46376,7 +46148,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486288184195011</v>
+        <v>1.419071737233938</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.221441386388333</v>
@@ -46465,7 +46237,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488914958052562</v>
+        <v>1.42175531501726</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.143652266982017</v>
@@ -46554,7 +46326,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.490307294056644</v>
+        <v>1.418794702610127</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.268751642879983</v>
@@ -46643,7 +46415,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.492044567846262</v>
+        <v>1.420711720998946</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.284377760020269</v>
@@ -46732,7 +46504,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.498646544018817</v>
+        <v>1.427611074018235</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.282419371572299</v>
@@ -46821,7 +46593,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.500600294421589</v>
+        <v>1.436104843375214</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.280869702421584</v>
@@ -46910,7 +46682,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.498536601785934</v>
+        <v>1.427319490820048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.068504436370368</v>
@@ -46999,7 +46771,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517087230854496</v>
+        <v>1.43717056389607</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.437996814031248</v>
@@ -47088,7 +46860,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.539697549820776</v>
+        <v>1.460355648214181</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.334626282499937</v>
@@ -47177,7 +46949,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.535773293289713</v>
+        <v>1.454740449407296</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.673428462406689</v>
@@ -47266,7 +47038,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507143800077431</v>
+        <v>1.43179747488399</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.566495153503791</v>
@@ -47355,7 +47127,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.509404441059467</v>
+        <v>1.432745348876787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.533626860303368</v>
@@ -47444,7 +47216,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.46923595412145</v>
+        <v>1.395970762775948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.288912953784016</v>
@@ -47533,7 +47305,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.477511027158392</v>
+        <v>1.390797906318806</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.345088687487247</v>
@@ -47622,7 +47394,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.457960603108086</v>
+        <v>1.373420255285454</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.452286579886488</v>
@@ -47711,7 +47483,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.4663414950797</v>
+        <v>1.377876052563835</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.33184392167892</v>
@@ -47800,7 +47572,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.48507847364605</v>
+        <v>1.387688454194902</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.254407826679572</v>
@@ -47889,7 +47661,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.46385776427871</v>
+        <v>1.37724058154626</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.425871069375015</v>
@@ -47978,7 +47750,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.4633369918493</v>
+        <v>1.375380111605088</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.418583082275465</v>
@@ -48067,7 +47839,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.458793355466693</v>
+        <v>1.365691187050035</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.360442540308143</v>
@@ -48156,7 +47928,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.446212158628509</v>
+        <v>1.359689789278649</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.525621209419898</v>
@@ -48245,7 +48017,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.449495742385655</v>
+        <v>1.360808025394522</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.46505866821825</v>
@@ -48334,7 +48106,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.465000918015179</v>
+        <v>1.369147673668997</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.507147195936875</v>
@@ -48423,7 +48195,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.466479288951717</v>
+        <v>1.372841452320947</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.457888757780204</v>
@@ -48512,7 +48284,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.455035241359229</v>
+        <v>1.368851044009221</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.214848927439607</v>
@@ -48601,7 +48373,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.472854827844124</v>
+        <v>1.38237290862541</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.369165888601729</v>
@@ -48690,7 +48462,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.468927145240831</v>
+        <v>1.378076168089059</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.437810990524418</v>
@@ -48779,7 +48551,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.487676669337068</v>
+        <v>1.395063524659951</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.648854987808763</v>
@@ -48868,7 +48640,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.495937407534025</v>
+        <v>1.407163709424694</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.325872730016241</v>
@@ -48957,7 +48729,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.508911430581911</v>
+        <v>1.421658813147096</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.420436774834474</v>
@@ -49046,7 +48818,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.502091372044368</v>
+        <v>1.412839291457555</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.597115316187234</v>
@@ -49135,7 +48907,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.504898321580135</v>
+        <v>1.415858645210164</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.454089314292898</v>
@@ -49224,7 +48996,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.502256643769315</v>
+        <v>1.410785085891473</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.574761736438011</v>
@@ -49313,7 +49085,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.503689887731422</v>
+        <v>1.416016218858593</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.383890746168272</v>
@@ -49402,7 +49174,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.499557007954845</v>
+        <v>1.408462519195844</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.193447318664645</v>
@@ -49491,7 +49263,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.516334266249562</v>
+        <v>1.422101428219105</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.39450475048629</v>
@@ -49580,7 +49352,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.513115465723937</v>
+        <v>1.418340283852788</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.573611878466567</v>
@@ -49669,7 +49441,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.51108595085624</v>
+        <v>1.42320649058107</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.516832715340914</v>
@@ -49758,7 +49530,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.502491900856755</v>
+        <v>1.417669530732209</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.373289618909445</v>
@@ -49847,7 +49619,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.520571722124749</v>
+        <v>1.431407418804084</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.477890991067583</v>
@@ -49936,7 +49708,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.520777888282189</v>
+        <v>1.427572001214482</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.503692120295904</v>
@@ -50025,7 +49797,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.521693729681875</v>
+        <v>1.423764790967645</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.334278320029819</v>
@@ -50114,7 +49886,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.543440384230753</v>
+        <v>1.44442640564353</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.406491626550705</v>
@@ -50203,7 +49975,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.516682635375181</v>
+        <v>1.429421929308378</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.35731527895134</v>
